--- a/data/Excel/1.8.xlsx
+++ b/data/Excel/1.8.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\RAO_Project\data\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bkl\source\repos\repo\RAO_Project\data\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1036FD7A-6232-4A3F-9098-48E1B338209B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19310" yWindow="430" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19305" yWindow="435" windowWidth="19425" windowHeight="10425"/>
   </bookViews>
   <sheets>
     <sheet name="1.0" sheetId="5" r:id="rId1"/>
@@ -307,7 +306,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -411,7 +410,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="52">
+  <borders count="56">
     <border>
       <left/>
       <right/>
@@ -668,19 +667,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -1060,6 +1046,69 @@
         <color indexed="64"/>
       </top>
       <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -1071,7 +1120,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="118">
+  <cellXfs count="129">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1092,22 +1141,22 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="41" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="42" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="43" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="44" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="31" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
@@ -1119,68 +1168,8 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="41" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="32" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="31" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="39" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="33" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="37" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="34" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="38" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="35" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="40" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
@@ -1189,27 +1178,134 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="45" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="33" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="46" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="47" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="48" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1219,209 +1315,195 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="49" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="50" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="49" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="38" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="33" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="37" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="45" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="34" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="39" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="31" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="35" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="32" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="51" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="52" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="46" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="46" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="34" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="47" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="48" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="49" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="50" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="51" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="50" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="53" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="54" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="55" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Обычный 2" xfId="1" xr:uid="{B5BE5C71-2102-4ADA-89D1-EA43F7263FF4}"/>
-    <cellStyle name="Обычный 2 2" xfId="3" xr:uid="{5CE64A1B-99E6-41C5-A5A8-68CCCF179C04}"/>
-    <cellStyle name="Обычный 3" xfId="2" xr:uid="{5C081DC7-4CFC-4D07-B0FD-3934541279EA}"/>
+    <cellStyle name="Обычный 2" xfId="1"/>
+    <cellStyle name="Обычный 2 2" xfId="3"/>
+    <cellStyle name="Обычный 3" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1698,151 +1780,154 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DABBCD7B-CA02-43AE-AA3D-079AA82B1182}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="55" zoomScaleNormal="100" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="55" zoomScaleNormal="100" zoomScaleSheetLayoutView="55" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.68359375" style="39" customWidth="1"/>
-    <col min="2" max="2" width="12.89453125" style="39" customWidth="1"/>
-    <col min="3" max="3" width="10.47265625" style="39" customWidth="1"/>
-    <col min="4" max="4" width="16.83984375" style="39" customWidth="1"/>
-    <col min="5" max="5" width="40.3125" style="39" customWidth="1"/>
-    <col min="6" max="6" width="37.47265625" style="39" customWidth="1"/>
-    <col min="7" max="9" width="10.578125" style="39" customWidth="1"/>
-    <col min="10" max="16384" width="9.15625" style="39"/>
+    <col min="1" max="1" width="16.7109375" style="19" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" style="19" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" style="19" customWidth="1"/>
+    <col min="4" max="4" width="16.85546875" style="19" customWidth="1"/>
+    <col min="5" max="5" width="40.28515625" style="19" customWidth="1"/>
+    <col min="6" max="6" width="37.42578125" style="19" customWidth="1"/>
+    <col min="7" max="9" width="10.5703125" style="19" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="I1" s="40" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I1" s="20" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="41" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="63" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="42" t="s">
+      <c r="B2" s="63"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="64" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="42"/>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
-      <c r="H3" s="42"/>
-      <c r="I3" s="42"/>
-    </row>
-    <row r="4" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="42" t="s">
+      <c r="B3" s="64"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="64"/>
+      <c r="I3" s="64"/>
+    </row>
+    <row r="4" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="42"/>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="42"/>
-      <c r="H4" s="42"/>
-      <c r="I4" s="42"/>
-    </row>
-    <row r="5" spans="1:9" ht="2.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="43"/>
-      <c r="B5" s="43"/>
-      <c r="C5" s="43"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="43"/>
-      <c r="F5" s="43"/>
-      <c r="G5" s="43"/>
-      <c r="H5" s="43"/>
-      <c r="I5" s="43"/>
-    </row>
-    <row r="6" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="D6" s="44"/>
-      <c r="E6" s="44" t="s">
+      <c r="B4" s="64"/>
+      <c r="C4" s="64"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="64"/>
+      <c r="H4" s="64"/>
+      <c r="I4" s="64"/>
+    </row>
+    <row r="5" spans="1:9" ht="2.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="21"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
+    </row>
+    <row r="6" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D6" s="22"/>
+      <c r="E6" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="F6" s="45"/>
-      <c r="G6" s="46" t="s">
+      <c r="F6" s="23"/>
+      <c r="G6" s="24" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15.6" thickBot="1" x14ac:dyDescent="0.6"/>
-    <row r="10" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="47" t="s">
+    <row r="9" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="65" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="48"/>
-      <c r="C10" s="48"/>
-      <c r="D10" s="48"/>
-      <c r="E10" s="49"/>
-      <c r="F10" s="50" t="s">
+      <c r="B10" s="66"/>
+      <c r="C10" s="66"/>
+      <c r="D10" s="66"/>
+      <c r="E10" s="67"/>
+      <c r="F10" s="68" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="86.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="51" t="s">
+    <row r="11" spans="1:9" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="52"/>
-      <c r="C11" s="52"/>
-      <c r="D11" s="52"/>
-      <c r="E11" s="53"/>
-      <c r="F11" s="50"/>
-    </row>
-    <row r="12" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="51" t="s">
+      <c r="B11" s="70"/>
+      <c r="C11" s="70"/>
+      <c r="D11" s="70"/>
+      <c r="E11" s="71"/>
+      <c r="F11" s="68"/>
+    </row>
+    <row r="12" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="69" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="52"/>
-      <c r="C12" s="52"/>
-      <c r="D12" s="52"/>
-      <c r="E12" s="53"/>
-      <c r="F12" s="50"/>
-    </row>
-    <row r="13" spans="1:9" ht="16.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="51"/>
-      <c r="B13" s="52"/>
-      <c r="C13" s="52"/>
-      <c r="D13" s="52"/>
-      <c r="E13" s="53"/>
-      <c r="F13" s="50"/>
-    </row>
-    <row r="14" spans="1:9" ht="30.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A14" s="54"/>
-      <c r="B14" s="55"/>
-      <c r="C14" s="55"/>
-      <c r="D14" s="55"/>
-      <c r="E14" s="56"/>
-      <c r="F14" s="57"/>
-    </row>
-    <row r="15" spans="1:9" ht="23.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="58" t="s">
+      <c r="B12" s="70"/>
+      <c r="C12" s="70"/>
+      <c r="D12" s="70"/>
+      <c r="E12" s="71"/>
+      <c r="F12" s="68"/>
+    </row>
+    <row r="13" spans="1:9" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="69"/>
+      <c r="B13" s="70"/>
+      <c r="C13" s="70"/>
+      <c r="D13" s="70"/>
+      <c r="E13" s="71"/>
+      <c r="F13" s="68"/>
+    </row>
+    <row r="14" spans="1:9" ht="30.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="72"/>
+      <c r="B14" s="73"/>
+      <c r="C14" s="73"/>
+      <c r="D14" s="73"/>
+      <c r="E14" s="74"/>
+      <c r="F14" s="68"/>
+    </row>
+    <row r="15" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="59" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="59"/>
-      <c r="C15" s="59"/>
-      <c r="D15" s="59"/>
-      <c r="E15" s="59"/>
-      <c r="F15" s="60"/>
-    </row>
-    <row r="16" spans="1:9" ht="23.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="61" t="s">
+      <c r="B15" s="60"/>
+      <c r="C15" s="60"/>
+      <c r="D15" s="60"/>
+      <c r="E15" s="116"/>
+      <c r="F15" s="120"/>
+      <c r="G15" s="121"/>
+      <c r="H15" s="121"/>
+      <c r="I15" s="111"/>
+    </row>
+    <row r="16" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="50" t="s">
         <v>1</v>
       </c>
       <c r="B16" s="62" t="s">
@@ -1850,242 +1935,323 @@
       </c>
       <c r="C16" s="62"/>
       <c r="D16" s="62"/>
-      <c r="E16" s="62"/>
-      <c r="F16" s="63"/>
-    </row>
-    <row r="17" spans="1:6" ht="23.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="61"/>
-      <c r="B17" s="64" t="s">
+      <c r="E16" s="117"/>
+      <c r="F16" s="122"/>
+      <c r="G16" s="115"/>
+      <c r="H16" s="115"/>
+      <c r="I16" s="112"/>
+    </row>
+    <row r="17" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="50"/>
+      <c r="B17" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="64"/>
-      <c r="D17" s="64"/>
-      <c r="E17" s="64"/>
-      <c r="F17" s="63"/>
-    </row>
-    <row r="18" spans="1:6" ht="23.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="61"/>
-      <c r="B18" s="64" t="s">
+      <c r="C17" s="54"/>
+      <c r="D17" s="54"/>
+      <c r="E17" s="55"/>
+      <c r="F17" s="122"/>
+      <c r="G17" s="115"/>
+      <c r="H17" s="115"/>
+      <c r="I17" s="112"/>
+    </row>
+    <row r="18" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="50"/>
+      <c r="B18" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="64"/>
-      <c r="D18" s="64"/>
-      <c r="E18" s="64"/>
-      <c r="F18" s="63"/>
-    </row>
-    <row r="19" spans="1:6" ht="23.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="61"/>
-      <c r="B19" s="64" t="s">
+      <c r="C18" s="54"/>
+      <c r="D18" s="54"/>
+      <c r="E18" s="55"/>
+      <c r="F18" s="122"/>
+      <c r="G18" s="115"/>
+      <c r="H18" s="115"/>
+      <c r="I18" s="112"/>
+    </row>
+    <row r="19" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="50"/>
+      <c r="B19" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="64"/>
-      <c r="D19" s="64"/>
-      <c r="E19" s="64"/>
-      <c r="F19" s="63"/>
-    </row>
-    <row r="20" spans="1:6" ht="23.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="61"/>
-      <c r="B20" s="64" t="s">
+      <c r="C19" s="54"/>
+      <c r="D19" s="54"/>
+      <c r="E19" s="55"/>
+      <c r="F19" s="122"/>
+      <c r="G19" s="115"/>
+      <c r="H19" s="115"/>
+      <c r="I19" s="112"/>
+    </row>
+    <row r="20" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="50"/>
+      <c r="B20" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="64"/>
-      <c r="D20" s="64"/>
-      <c r="E20" s="64"/>
-      <c r="F20" s="63"/>
-    </row>
-    <row r="21" spans="1:6" ht="23.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="61"/>
-      <c r="B21" s="64" t="s">
+      <c r="C20" s="54"/>
+      <c r="D20" s="54"/>
+      <c r="E20" s="55"/>
+      <c r="F20" s="122"/>
+      <c r="G20" s="115"/>
+      <c r="H20" s="115"/>
+      <c r="I20" s="112"/>
+    </row>
+    <row r="21" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="50"/>
+      <c r="B21" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="64"/>
-      <c r="D21" s="64"/>
-      <c r="E21" s="64"/>
-      <c r="F21" s="63"/>
-    </row>
-    <row r="22" spans="1:6" ht="23.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="61"/>
-      <c r="B22" s="65" t="s">
+      <c r="C21" s="54"/>
+      <c r="D21" s="54"/>
+      <c r="E21" s="55"/>
+      <c r="F21" s="122"/>
+      <c r="G21" s="115"/>
+      <c r="H21" s="115"/>
+      <c r="I21" s="112"/>
+    </row>
+    <row r="22" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="50"/>
+      <c r="B22" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="65"/>
-      <c r="D22" s="65"/>
-      <c r="E22" s="65"/>
-      <c r="F22" s="63"/>
-    </row>
-    <row r="23" spans="1:6" ht="23.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="61"/>
-      <c r="B23" s="65" t="s">
+      <c r="C22" s="56"/>
+      <c r="D22" s="56"/>
+      <c r="E22" s="57"/>
+      <c r="F22" s="122"/>
+      <c r="G22" s="115"/>
+      <c r="H22" s="115"/>
+      <c r="I22" s="112"/>
+    </row>
+    <row r="23" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="50"/>
+      <c r="B23" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="C23" s="65"/>
-      <c r="D23" s="65"/>
-      <c r="E23" s="65"/>
-      <c r="F23" s="63"/>
-    </row>
-    <row r="24" spans="1:6" ht="23.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A24" s="66"/>
-      <c r="B24" s="67" t="s">
+      <c r="C23" s="56"/>
+      <c r="D23" s="56"/>
+      <c r="E23" s="57"/>
+      <c r="F23" s="122"/>
+      <c r="G23" s="115"/>
+      <c r="H23" s="115"/>
+      <c r="I23" s="112"/>
+    </row>
+    <row r="24" spans="1:9" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="61"/>
+      <c r="B24" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="C24" s="67"/>
-      <c r="D24" s="67"/>
-      <c r="E24" s="67"/>
-      <c r="F24" s="68"/>
-    </row>
-    <row r="25" spans="1:6" ht="23.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="69" t="s">
+      <c r="C24" s="48"/>
+      <c r="D24" s="48"/>
+      <c r="E24" s="118"/>
+      <c r="F24" s="124"/>
+      <c r="G24" s="125"/>
+      <c r="H24" s="125"/>
+      <c r="I24" s="114"/>
+    </row>
+    <row r="25" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B25" s="70" t="s">
+      <c r="B25" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="C25" s="70"/>
-      <c r="D25" s="70"/>
-      <c r="E25" s="71"/>
-      <c r="F25" s="72"/>
-    </row>
-    <row r="26" spans="1:6" ht="23.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="61"/>
-      <c r="B26" s="64" t="s">
+      <c r="C25" s="52"/>
+      <c r="D25" s="52"/>
+      <c r="E25" s="53"/>
+      <c r="F25" s="126"/>
+      <c r="G25" s="127"/>
+      <c r="H25" s="127"/>
+      <c r="I25" s="128"/>
+    </row>
+    <row r="26" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="50"/>
+      <c r="B26" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="C26" s="64"/>
-      <c r="D26" s="64"/>
-      <c r="E26" s="73"/>
-      <c r="F26" s="74"/>
-    </row>
-    <row r="27" spans="1:6" ht="23.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="61"/>
-      <c r="B27" s="64" t="s">
+      <c r="C26" s="54"/>
+      <c r="D26" s="54"/>
+      <c r="E26" s="55"/>
+      <c r="F26" s="123"/>
+      <c r="G26" s="54"/>
+      <c r="H26" s="54"/>
+      <c r="I26" s="113"/>
+    </row>
+    <row r="27" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="50"/>
+      <c r="B27" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="C27" s="64"/>
-      <c r="D27" s="64"/>
-      <c r="E27" s="73"/>
-      <c r="F27" s="74"/>
-    </row>
-    <row r="28" spans="1:6" ht="23.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="61"/>
-      <c r="B28" s="64" t="s">
+      <c r="C27" s="54"/>
+      <c r="D27" s="54"/>
+      <c r="E27" s="55"/>
+      <c r="F27" s="123"/>
+      <c r="G27" s="54"/>
+      <c r="H27" s="54"/>
+      <c r="I27" s="113"/>
+    </row>
+    <row r="28" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="50"/>
+      <c r="B28" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="C28" s="64"/>
-      <c r="D28" s="64"/>
-      <c r="E28" s="73"/>
-      <c r="F28" s="74"/>
-    </row>
-    <row r="29" spans="1:6" ht="23.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="61"/>
-      <c r="B29" s="64" t="s">
+      <c r="C28" s="54"/>
+      <c r="D28" s="54"/>
+      <c r="E28" s="55"/>
+      <c r="F28" s="123"/>
+      <c r="G28" s="54"/>
+      <c r="H28" s="54"/>
+      <c r="I28" s="113"/>
+    </row>
+    <row r="29" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="50"/>
+      <c r="B29" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="C29" s="64"/>
-      <c r="D29" s="64"/>
-      <c r="E29" s="73"/>
-      <c r="F29" s="74"/>
-    </row>
-    <row r="30" spans="1:6" ht="23.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="61"/>
-      <c r="B30" s="65" t="s">
+      <c r="C29" s="54"/>
+      <c r="D29" s="54"/>
+      <c r="E29" s="55"/>
+      <c r="F29" s="123"/>
+      <c r="G29" s="54"/>
+      <c r="H29" s="54"/>
+      <c r="I29" s="113"/>
+    </row>
+    <row r="30" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="50"/>
+      <c r="B30" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="C30" s="65"/>
-      <c r="D30" s="65"/>
-      <c r="E30" s="75"/>
-      <c r="F30" s="63"/>
-    </row>
-    <row r="31" spans="1:6" ht="23.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="61"/>
-      <c r="B31" s="65" t="s">
+      <c r="C30" s="56"/>
+      <c r="D30" s="56"/>
+      <c r="E30" s="57"/>
+      <c r="F30" s="122"/>
+      <c r="G30" s="115"/>
+      <c r="H30" s="115"/>
+      <c r="I30" s="112"/>
+    </row>
+    <row r="31" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="50"/>
+      <c r="B31" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="C31" s="65"/>
-      <c r="D31" s="65"/>
-      <c r="E31" s="75"/>
-      <c r="F31" s="63"/>
-    </row>
-    <row r="32" spans="1:6" ht="23.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A32" s="76"/>
-      <c r="B32" s="77" t="s">
+      <c r="C31" s="56"/>
+      <c r="D31" s="56"/>
+      <c r="E31" s="57"/>
+      <c r="F31" s="122"/>
+      <c r="G31" s="115"/>
+      <c r="H31" s="115"/>
+      <c r="I31" s="112"/>
+    </row>
+    <row r="32" spans="1:9" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="51"/>
+      <c r="B32" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="C32" s="77"/>
-      <c r="D32" s="77"/>
-      <c r="E32" s="77"/>
-      <c r="F32" s="78"/>
-    </row>
-    <row r="33" spans="1:9" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="G33" s="79"/>
-    </row>
-    <row r="34" spans="1:9" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A34" s="80" t="s">
+      <c r="C32" s="58"/>
+      <c r="D32" s="58"/>
+      <c r="E32" s="119"/>
+      <c r="F32" s="124"/>
+      <c r="G32" s="125"/>
+      <c r="H32" s="125"/>
+      <c r="I32" s="114"/>
+    </row>
+    <row r="33" spans="1:9" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G33" s="25"/>
+    </row>
+    <row r="34" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="B34" s="81"/>
-      <c r="C34" s="81"/>
-      <c r="D34" s="81"/>
-      <c r="E34" s="81"/>
-      <c r="F34" s="81"/>
-      <c r="G34" s="81"/>
-      <c r="H34" s="81"/>
-      <c r="I34" s="82"/>
-    </row>
-    <row r="35" spans="1:9" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A35" s="83"/>
-      <c r="B35" s="84" t="s">
+      <c r="B34" s="46"/>
+      <c r="C34" s="46"/>
+      <c r="D34" s="46"/>
+      <c r="E34" s="46"/>
+      <c r="F34" s="46"/>
+      <c r="G34" s="46"/>
+      <c r="H34" s="46"/>
+      <c r="I34" s="47"/>
+    </row>
+    <row r="35" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="26"/>
+      <c r="B35" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="C35" s="84" t="s">
+      <c r="C35" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="D35" s="84" t="s">
+      <c r="D35" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="E35" s="84" t="s">
+      <c r="E35" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="F35" s="84" t="s">
+      <c r="F35" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="G35" s="84" t="s">
+      <c r="G35" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="H35" s="84" t="s">
+      <c r="H35" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="I35" s="84" t="s">
+      <c r="I35" s="27" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:9" s="88" customFormat="1" ht="46.2" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A36" s="85" t="s">
+    <row r="36" spans="1:9" s="31" customFormat="1" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="B36" s="86"/>
-      <c r="C36" s="87"/>
-      <c r="D36" s="87"/>
-      <c r="E36" s="87"/>
-      <c r="F36" s="87"/>
-      <c r="G36" s="87"/>
-      <c r="H36" s="87"/>
-      <c r="I36" s="87"/>
-    </row>
-    <row r="37" spans="1:9" s="88" customFormat="1" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A37" s="89" t="s">
+      <c r="B36" s="29"/>
+      <c r="C36" s="30"/>
+      <c r="D36" s="30"/>
+      <c r="E36" s="30"/>
+      <c r="F36" s="30"/>
+      <c r="G36" s="30"/>
+      <c r="H36" s="30"/>
+      <c r="I36" s="30"/>
+    </row>
+    <row r="37" spans="1:9" s="31" customFormat="1" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B37" s="83"/>
-      <c r="C37" s="84"/>
-      <c r="D37" s="84"/>
-      <c r="E37" s="84"/>
-      <c r="F37" s="84"/>
-      <c r="G37" s="84"/>
-      <c r="H37" s="84"/>
-      <c r="I37" s="84"/>
+      <c r="B37" s="26"/>
+      <c r="C37" s="27"/>
+      <c r="D37" s="27"/>
+      <c r="E37" s="27"/>
+      <c r="F37" s="27"/>
+      <c r="G37" s="27"/>
+      <c r="H37" s="27"/>
+      <c r="I37" s="27"/>
     </row>
   </sheetData>
-  <mergeCells count="28">
+  <mergeCells count="46">
+    <mergeCell ref="F30:I30"/>
+    <mergeCell ref="F31:I31"/>
+    <mergeCell ref="F32:I32"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="F16:I16"/>
+    <mergeCell ref="F17:I17"/>
+    <mergeCell ref="F18:I18"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="F10:F14"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="A12:E14"/>
+    <mergeCell ref="A15:E15"/>
+    <mergeCell ref="A16:A24"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="B23:E23"/>
     <mergeCell ref="A34:I34"/>
     <mergeCell ref="B24:E24"/>
     <mergeCell ref="A25:A32"/>
@@ -2097,23 +2263,11 @@
     <mergeCell ref="B30:E30"/>
     <mergeCell ref="B31:E31"/>
     <mergeCell ref="B32:E32"/>
-    <mergeCell ref="A15:E15"/>
-    <mergeCell ref="A16:A24"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A4:I4"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="F10:F14"/>
-    <mergeCell ref="A11:E11"/>
-    <mergeCell ref="A12:E14"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="F26:I26"/>
+    <mergeCell ref="F27:I27"/>
+    <mergeCell ref="F28:I28"/>
+    <mergeCell ref="F29:I29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="50" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -2121,22 +2275,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F4B3432-7272-43B1-9086-A9B9F738898E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:AC19"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScale="55" zoomScaleNormal="100" zoomScaleSheetLayoutView="55" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="A7" zoomScale="55" zoomScaleNormal="100" zoomScaleSheetLayoutView="55" workbookViewId="0">
       <selection activeCell="AE9" sqref="AE9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.15625" style="2"/>
+    <col min="1" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -2146,49 +2300,49 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="19" t="s">
+    <row r="2" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="100" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
-      <c r="N2" s="19"/>
-      <c r="O2" s="19"/>
-      <c r="P2" s="19"/>
-      <c r="Q2" s="19"/>
-      <c r="R2" s="19"/>
-      <c r="S2" s="19"/>
-      <c r="T2" s="19"/>
-      <c r="U2" s="19"/>
-      <c r="V2" s="19"/>
-      <c r="W2" s="19"/>
-      <c r="X2" s="19"/>
-      <c r="Y2" s="19"/>
-      <c r="Z2" s="19"/>
-      <c r="AA2" s="19"/>
-      <c r="AB2" s="19"/>
-    </row>
-    <row r="3" spans="1:29" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A3" s="20" t="s">
+      <c r="B2" s="100"/>
+      <c r="C2" s="100"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="100"/>
+      <c r="F2" s="100"/>
+      <c r="G2" s="100"/>
+      <c r="H2" s="100"/>
+      <c r="I2" s="100"/>
+      <c r="J2" s="100"/>
+      <c r="K2" s="100"/>
+      <c r="L2" s="100"/>
+      <c r="M2" s="100"/>
+      <c r="N2" s="100"/>
+      <c r="O2" s="100"/>
+      <c r="P2" s="100"/>
+      <c r="Q2" s="100"/>
+      <c r="R2" s="100"/>
+      <c r="S2" s="100"/>
+      <c r="T2" s="100"/>
+      <c r="U2" s="100"/>
+      <c r="V2" s="100"/>
+      <c r="W2" s="100"/>
+      <c r="X2" s="100"/>
+      <c r="Y2" s="100"/>
+      <c r="Z2" s="100"/>
+      <c r="AA2" s="100"/>
+      <c r="AB2" s="100"/>
+    </row>
+    <row r="3" spans="1:29" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="101" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="91"/>
-      <c r="H3" s="91"/>
+      <c r="B3" s="101"/>
+      <c r="C3" s="101"/>
+      <c r="D3" s="101"/>
+      <c r="E3" s="101"/>
+      <c r="F3" s="101"/>
+      <c r="G3" s="78"/>
+      <c r="H3" s="78"/>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
@@ -2210,17 +2364,17 @@
       <c r="AA3" s="4"/>
       <c r="AB3" s="4"/>
     </row>
-    <row r="4" spans="1:29" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A4" s="20" t="s">
+    <row r="4" spans="1:29" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="101" t="s">
         <v>39</v>
       </c>
-      <c r="B4" s="20"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="91"/>
-      <c r="H4" s="91"/>
+      <c r="B4" s="101"/>
+      <c r="C4" s="101"/>
+      <c r="D4" s="101"/>
+      <c r="E4" s="101"/>
+      <c r="F4" s="101"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
@@ -2242,190 +2396,190 @@
       <c r="AA4" s="4"/>
       <c r="AB4" s="4"/>
     </row>
-    <row r="5" spans="1:29" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A5" s="20" t="s">
+    <row r="5" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="101" t="s">
         <v>40</v>
       </c>
-      <c r="B5" s="20"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="90"/>
-      <c r="H5" s="90"/>
-    </row>
-    <row r="6" spans="1:29" ht="14.7" thickBot="1" x14ac:dyDescent="0.6"/>
-    <row r="7" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A7" s="21" t="s">
+      <c r="B5" s="101"/>
+      <c r="C5" s="101"/>
+      <c r="D5" s="101"/>
+      <c r="E5" s="101"/>
+      <c r="F5" s="101"/>
+      <c r="G5" s="79"/>
+      <c r="H5" s="79"/>
+    </row>
+    <row r="6" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="102" t="s">
         <v>41</v>
       </c>
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="105" t="s">
         <v>42</v>
       </c>
-      <c r="C7" s="25"/>
-      <c r="D7" s="26" t="s">
+      <c r="C7" s="106"/>
+      <c r="D7" s="90" t="s">
         <v>43</v>
       </c>
-      <c r="E7" s="27"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="27"/>
-      <c r="I7" s="27"/>
-      <c r="J7" s="28"/>
-      <c r="K7" s="26" t="s">
+      <c r="E7" s="91"/>
+      <c r="F7" s="91"/>
+      <c r="G7" s="91"/>
+      <c r="H7" s="91"/>
+      <c r="I7" s="91"/>
+      <c r="J7" s="92"/>
+      <c r="K7" s="90" t="s">
         <v>44</v>
       </c>
-      <c r="L7" s="27"/>
-      <c r="M7" s="28"/>
-      <c r="N7" s="26" t="s">
+      <c r="L7" s="91"/>
+      <c r="M7" s="92"/>
+      <c r="N7" s="90" t="s">
         <v>9</v>
       </c>
-      <c r="O7" s="28"/>
-      <c r="P7" s="26" t="s">
+      <c r="O7" s="92"/>
+      <c r="P7" s="90" t="s">
         <v>45</v>
       </c>
-      <c r="Q7" s="28"/>
-      <c r="R7" s="26" t="s">
+      <c r="Q7" s="92"/>
+      <c r="R7" s="90" t="s">
         <v>46</v>
       </c>
-      <c r="S7" s="27"/>
-      <c r="T7" s="27"/>
-      <c r="U7" s="27"/>
-      <c r="V7" s="27"/>
-      <c r="W7" s="27"/>
-      <c r="X7" s="27"/>
-      <c r="Y7" s="27"/>
-      <c r="Z7" s="29"/>
-      <c r="AA7" s="30" t="s">
+      <c r="S7" s="91"/>
+      <c r="T7" s="91"/>
+      <c r="U7" s="91"/>
+      <c r="V7" s="91"/>
+      <c r="W7" s="91"/>
+      <c r="X7" s="91"/>
+      <c r="Y7" s="91"/>
+      <c r="Z7" s="107"/>
+      <c r="AA7" s="108" t="s">
         <v>47</v>
       </c>
-      <c r="AB7" s="30" t="s">
+      <c r="AB7" s="108" t="s">
         <v>48</v>
       </c>
       <c r="AC7" s="5"/>
     </row>
-    <row r="8" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A8" s="22"/>
-      <c r="B8" s="33" t="s">
+    <row r="8" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="103"/>
+      <c r="B8" s="109" t="s">
         <v>49</v>
       </c>
-      <c r="C8" s="35" t="s">
+      <c r="C8" s="95" t="s">
         <v>50</v>
       </c>
-      <c r="D8" s="35" t="s">
+      <c r="D8" s="95" t="s">
         <v>51</v>
       </c>
-      <c r="E8" s="35" t="s">
+      <c r="E8" s="95" t="s">
         <v>52</v>
       </c>
-      <c r="F8" s="35" t="s">
+      <c r="F8" s="95" t="s">
         <v>53</v>
       </c>
-      <c r="G8" s="35" t="s">
+      <c r="G8" s="95" t="s">
         <v>54</v>
       </c>
-      <c r="H8" s="92" t="s">
+      <c r="H8" s="97" t="s">
         <v>55</v>
       </c>
-      <c r="I8" s="26" t="s">
+      <c r="I8" s="90" t="s">
         <v>56</v>
       </c>
-      <c r="J8" s="28"/>
-      <c r="K8" s="31" t="s">
+      <c r="J8" s="92"/>
+      <c r="K8" s="93" t="s">
         <v>57</v>
       </c>
-      <c r="L8" s="35" t="s">
+      <c r="L8" s="95" t="s">
         <v>58</v>
       </c>
-      <c r="M8" s="35" t="s">
+      <c r="M8" s="95" t="s">
         <v>50</v>
       </c>
-      <c r="N8" s="35" t="s">
+      <c r="N8" s="95" t="s">
         <v>59</v>
       </c>
-      <c r="O8" s="35" t="s">
+      <c r="O8" s="95" t="s">
         <v>60</v>
       </c>
-      <c r="P8" s="35" t="s">
+      <c r="P8" s="95" t="s">
         <v>61</v>
       </c>
-      <c r="Q8" s="31" t="s">
+      <c r="Q8" s="93" t="s">
         <v>62</v>
       </c>
-      <c r="R8" s="31" t="s">
+      <c r="R8" s="93" t="s">
         <v>63</v>
       </c>
-      <c r="S8" s="37" t="s">
+      <c r="S8" s="98" t="s">
         <v>64</v>
       </c>
-      <c r="T8" s="35" t="s">
+      <c r="T8" s="95" t="s">
         <v>65</v>
       </c>
-      <c r="U8" s="92" t="s">
+      <c r="U8" s="97" t="s">
         <v>54</v>
       </c>
-      <c r="V8" s="26" t="s">
+      <c r="V8" s="90" t="s">
         <v>66</v>
       </c>
-      <c r="W8" s="27"/>
-      <c r="X8" s="27"/>
-      <c r="Y8" s="28"/>
-      <c r="Z8" s="31" t="s">
+      <c r="W8" s="91"/>
+      <c r="X8" s="91"/>
+      <c r="Y8" s="92"/>
+      <c r="Z8" s="93" t="s">
         <v>67</v>
       </c>
-      <c r="AA8" s="31"/>
-      <c r="AB8" s="31"/>
+      <c r="AA8" s="93"/>
+      <c r="AB8" s="93"/>
       <c r="AC8" s="17"/>
     </row>
-    <row r="9" spans="1:29" ht="320.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A9" s="23"/>
-      <c r="B9" s="34"/>
-      <c r="C9" s="36"/>
-      <c r="D9" s="36"/>
-      <c r="E9" s="36"/>
-      <c r="F9" s="36"/>
-      <c r="G9" s="36"/>
-      <c r="H9" s="36"/>
+    <row r="9" spans="1:29" ht="320.10000000000002" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="104"/>
+      <c r="B9" s="110"/>
+      <c r="C9" s="96"/>
+      <c r="D9" s="96"/>
+      <c r="E9" s="96"/>
+      <c r="F9" s="96"/>
+      <c r="G9" s="96"/>
+      <c r="H9" s="96"/>
       <c r="I9" s="6" t="s">
         <v>68</v>
       </c>
       <c r="J9" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="K9" s="32"/>
-      <c r="L9" s="36"/>
-      <c r="M9" s="36"/>
-      <c r="N9" s="36"/>
-      <c r="O9" s="36"/>
-      <c r="P9" s="36"/>
-      <c r="Q9" s="32"/>
-      <c r="R9" s="32"/>
-      <c r="S9" s="38"/>
-      <c r="T9" s="36"/>
-      <c r="U9" s="36"/>
+      <c r="K9" s="94"/>
+      <c r="L9" s="96"/>
+      <c r="M9" s="96"/>
+      <c r="N9" s="96"/>
+      <c r="O9" s="96"/>
+      <c r="P9" s="96"/>
+      <c r="Q9" s="94"/>
+      <c r="R9" s="94"/>
+      <c r="S9" s="99"/>
+      <c r="T9" s="96"/>
+      <c r="U9" s="96"/>
       <c r="V9" s="18"/>
       <c r="W9" s="18"/>
       <c r="X9" s="18"/>
       <c r="Y9" s="18"/>
-      <c r="Z9" s="32"/>
-      <c r="AA9" s="32"/>
-      <c r="AB9" s="32"/>
+      <c r="Z9" s="94"/>
+      <c r="AA9" s="94"/>
+      <c r="AB9" s="94"/>
       <c r="AC9" s="5"/>
     </row>
-    <row r="10" spans="1:29" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A10" s="94">
+    <row r="10" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="33">
         <v>1</v>
       </c>
-      <c r="B10" s="94">
+      <c r="B10" s="33">
         <v>2</v>
       </c>
-      <c r="C10" s="94">
+      <c r="C10" s="33">
         <v>3</v>
       </c>
-      <c r="D10" s="96">
+      <c r="D10" s="35">
         <v>4</v>
       </c>
-      <c r="E10" s="97">
+      <c r="E10" s="36">
         <v>5</v>
       </c>
       <c r="F10" s="7">
@@ -2488,48 +2642,48 @@
       <c r="Y10" s="13">
         <v>25</v>
       </c>
-      <c r="Z10" s="99">
+      <c r="Z10" s="38">
         <v>26</v>
       </c>
-      <c r="AA10" s="100">
+      <c r="AA10" s="39">
         <v>27</v>
       </c>
-      <c r="AB10" s="101">
+      <c r="AB10" s="40">
         <v>28</v>
       </c>
       <c r="AC10" s="5"/>
     </row>
-    <row r="11" spans="1:29" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A11" s="95"/>
-      <c r="B11" s="95"/>
-      <c r="C11" s="95"/>
-      <c r="D11" s="95"/>
-      <c r="E11" s="95"/>
-      <c r="F11" s="95"/>
-      <c r="G11" s="95"/>
-      <c r="H11" s="95"/>
-      <c r="I11" s="95"/>
-      <c r="J11" s="95"/>
-      <c r="K11" s="95"/>
-      <c r="L11" s="95"/>
-      <c r="M11" s="95"/>
-      <c r="N11" s="98"/>
-      <c r="O11" s="98"/>
-      <c r="P11" s="95"/>
-      <c r="Q11" s="95"/>
-      <c r="R11" s="95"/>
-      <c r="S11" s="95"/>
-      <c r="T11" s="95"/>
-      <c r="U11" s="95"/>
-      <c r="V11" s="95"/>
-      <c r="W11" s="95"/>
-      <c r="X11" s="95"/>
-      <c r="Y11" s="95"/>
-      <c r="Z11" s="95"/>
-      <c r="AA11" s="95"/>
-      <c r="AB11" s="95"/>
-    </row>
-    <row r="13" spans="1:29" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="11" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="34"/>
+      <c r="B11" s="34"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="34"/>
+      <c r="H11" s="34"/>
+      <c r="I11" s="34"/>
+      <c r="J11" s="34"/>
+      <c r="K11" s="34"/>
+      <c r="L11" s="34"/>
+      <c r="M11" s="34"/>
+      <c r="N11" s="37"/>
+      <c r="O11" s="37"/>
+      <c r="P11" s="34"/>
+      <c r="Q11" s="34"/>
+      <c r="R11" s="34"/>
+      <c r="S11" s="34"/>
+      <c r="T11" s="34"/>
+      <c r="U11" s="34"/>
+      <c r="V11" s="34"/>
+      <c r="W11" s="34"/>
+      <c r="X11" s="34"/>
+      <c r="Y11" s="34"/>
+      <c r="Z11" s="34"/>
+      <c r="AA11" s="34"/>
+      <c r="AB11" s="34"/>
+    </row>
+    <row r="13" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>70</v>
       </c>
@@ -2540,102 +2694,106 @@
       <c r="N13" s="14"/>
       <c r="O13" s="14"/>
     </row>
-    <row r="14" spans="1:29" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A14" s="102" t="s">
+    <row r="14" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="81" t="s">
         <v>71</v>
       </c>
-      <c r="B14" s="103"/>
-      <c r="C14" s="102" t="s">
+      <c r="B14" s="82"/>
+      <c r="C14" s="81" t="s">
         <v>72</v>
       </c>
-      <c r="D14" s="103"/>
-      <c r="E14" s="104" t="s">
+      <c r="D14" s="82"/>
+      <c r="E14" s="83" t="s">
         <v>73</v>
       </c>
-      <c r="F14" s="105"/>
-      <c r="G14" s="105"/>
-      <c r="H14" s="105"/>
-      <c r="I14" s="105"/>
-      <c r="J14" s="106"/>
+      <c r="F14" s="84"/>
+      <c r="G14" s="84"/>
+      <c r="H14" s="84"/>
+      <c r="I14" s="84"/>
+      <c r="J14" s="85"/>
       <c r="N14" s="14"/>
       <c r="O14" s="14"/>
     </row>
-    <row r="15" spans="1:29" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A15" s="110"/>
-      <c r="B15" s="103"/>
-      <c r="C15" s="110"/>
-      <c r="D15" s="103"/>
-      <c r="E15" s="107"/>
-      <c r="F15" s="108"/>
-      <c r="G15" s="108"/>
-      <c r="H15" s="108"/>
-      <c r="I15" s="108"/>
-      <c r="J15" s="109"/>
+    <row r="15" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="86"/>
+      <c r="B15" s="82"/>
+      <c r="C15" s="86"/>
+      <c r="D15" s="82"/>
+      <c r="E15" s="87"/>
+      <c r="F15" s="88"/>
+      <c r="G15" s="88"/>
+      <c r="H15" s="88"/>
+      <c r="I15" s="88"/>
+      <c r="J15" s="89"/>
       <c r="O15" s="14"/>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
       <c r="O16" s="14"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="15"/>
       <c r="B17" s="14"/>
       <c r="C17" s="14"/>
       <c r="D17" s="14"/>
     </row>
-    <row r="18" spans="1:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A18" s="93" t="s">
+    <row r="18" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="80" t="s">
         <v>74</v>
       </c>
-      <c r="B18" s="93"/>
-      <c r="C18" s="93"/>
-      <c r="D18" s="111"/>
-      <c r="E18" s="112"/>
-      <c r="F18" s="113"/>
-      <c r="G18" s="113"/>
-      <c r="H18" s="112"/>
-      <c r="I18" s="111"/>
-      <c r="J18" s="112"/>
-      <c r="K18" s="113"/>
-      <c r="L18" s="113"/>
-    </row>
-    <row r="19" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B18" s="80"/>
+      <c r="C18" s="80"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="42"/>
+      <c r="F18" s="75"/>
+      <c r="G18" s="75"/>
+      <c r="H18" s="42"/>
+      <c r="I18" s="41"/>
+      <c r="J18" s="42"/>
+      <c r="K18" s="75"/>
+      <c r="L18" s="75"/>
+    </row>
+    <row r="19" spans="1:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="16"/>
       <c r="B19" s="14"/>
       <c r="C19" s="16"/>
-      <c r="D19" s="114" t="s">
+      <c r="D19" s="43" t="s">
         <v>75</v>
       </c>
-      <c r="E19" s="115"/>
-      <c r="F19" s="116" t="s">
+      <c r="E19" s="44"/>
+      <c r="F19" s="76" t="s">
         <v>76</v>
       </c>
-      <c r="G19" s="116"/>
-      <c r="H19" s="114"/>
-      <c r="I19" s="114" t="s">
+      <c r="G19" s="76"/>
+      <c r="H19" s="43"/>
+      <c r="I19" s="43" t="s">
         <v>77</v>
       </c>
-      <c r="J19" s="114"/>
-      <c r="K19" s="117" t="s">
+      <c r="J19" s="43"/>
+      <c r="K19" s="77" t="s">
         <v>78</v>
       </c>
-      <c r="L19" s="117"/>
+      <c r="L19" s="77"/>
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:J14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:J15"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="S8:S9"/>
+    <mergeCell ref="T8:T9"/>
+    <mergeCell ref="A2:AB2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:J7"/>
+    <mergeCell ref="K7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="R7:Z7"/>
+    <mergeCell ref="AA7:AA9"/>
+    <mergeCell ref="AB7:AB9"/>
+    <mergeCell ref="B8:B9"/>
     <mergeCell ref="V8:Y8"/>
     <mergeCell ref="Z8:Z9"/>
     <mergeCell ref="E8:E9"/>
@@ -2652,24 +2810,20 @@
     <mergeCell ref="P8:P9"/>
     <mergeCell ref="Q8:Q9"/>
     <mergeCell ref="R8:R9"/>
-    <mergeCell ref="S8:S9"/>
-    <mergeCell ref="T8:T9"/>
-    <mergeCell ref="A2:AB2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:J7"/>
-    <mergeCell ref="K7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="R7:Z7"/>
-    <mergeCell ref="AA7:AA9"/>
-    <mergeCell ref="AB7:AB9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:J14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:J15"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G5:H5"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="51" fitToHeight="1000" orientation="landscape" r:id="rId1"/>

--- a/data/Excel/1.8.xlsx
+++ b/data/Excel/1.8.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bkl\source\repos\repo\RAO_Project\data\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\RAO_Project\data\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{989D3F0F-7A62-4CD4-8CDC-A6FF0A2115DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19305" yWindow="435" windowWidth="19425" windowHeight="10425"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1.0" sheetId="5" r:id="rId1"/>
@@ -183,9 +184,6 @@
     <t>Дата окончания предыдущего отчетного периода</t>
   </si>
   <si>
-    <t>Дата окончания настящего отчетного периода</t>
-  </si>
-  <si>
     <t>Номер корректировки</t>
   </si>
   <si>
@@ -301,12 +299,15 @@
   </si>
   <si>
     <t>(Электронная почта)</t>
+  </si>
+  <si>
+    <t>Дата окончания настоящего отчетного периода</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1246,6 +1247,102 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1258,10 +1355,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="51" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1273,71 +1370,122 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="52" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="53" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="54" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="55" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="33" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="37" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="34" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="39" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="31" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="35" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="38" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="32" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="45" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="49" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="50" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="49" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1350,160 +1498,13 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="49" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="50" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="49" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="38" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="33" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="37" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="45" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="34" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="39" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="31" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="35" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="32" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="51" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="52" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="53" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="54" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="55" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Обычный 2" xfId="1"/>
-    <cellStyle name="Обычный 2 2" xfId="3"/>
-    <cellStyle name="Обычный 3" xfId="2"/>
+    <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Обычный 2 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Обычный 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1780,70 +1781,70 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="55" zoomScaleNormal="100" zoomScaleSheetLayoutView="55" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" style="19" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" style="19" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" style="19" customWidth="1"/>
-    <col min="4" max="4" width="16.85546875" style="19" customWidth="1"/>
-    <col min="5" max="5" width="40.28515625" style="19" customWidth="1"/>
-    <col min="6" max="6" width="37.42578125" style="19" customWidth="1"/>
-    <col min="7" max="9" width="10.5703125" style="19" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="19"/>
+    <col min="1" max="1" width="16.7265625" style="19" customWidth="1"/>
+    <col min="2" max="2" width="12.81640625" style="19" customWidth="1"/>
+    <col min="3" max="3" width="10.453125" style="19" customWidth="1"/>
+    <col min="4" max="4" width="16.81640625" style="19" customWidth="1"/>
+    <col min="5" max="5" width="40.26953125" style="19" customWidth="1"/>
+    <col min="6" max="6" width="37.453125" style="19" customWidth="1"/>
+    <col min="7" max="9" width="10.54296875" style="19" customWidth="1"/>
+    <col min="10" max="16384" width="9.1796875" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="I1" s="20" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="63" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A2" s="54" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="63"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="63"/>
-      <c r="I2" s="63"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="64" t="s">
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A3" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="64"/>
-      <c r="C3" s="64"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="64"/>
-      <c r="G3" s="64"/>
-      <c r="H3" s="64"/>
-      <c r="I3" s="64"/>
-    </row>
-    <row r="4" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="64" t="s">
+      <c r="B3" s="55"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
+    </row>
+    <row r="4" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="55" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="64"/>
-      <c r="C4" s="64"/>
-      <c r="D4" s="64"/>
-      <c r="E4" s="64"/>
-      <c r="F4" s="64"/>
-      <c r="G4" s="64"/>
-      <c r="H4" s="64"/>
-      <c r="I4" s="64"/>
-    </row>
-    <row r="5" spans="1:9" ht="2.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="55"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="55"/>
+    </row>
+    <row r="5" spans="1:9" ht="2.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="21"/>
       <c r="B5" s="21"/>
       <c r="C5" s="21"/>
@@ -1854,7 +1855,7 @@
       <c r="H5" s="21"/>
       <c r="I5" s="21"/>
     </row>
-    <row r="6" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D6" s="22"/>
       <c r="E6" s="22" t="s">
         <v>31</v>
@@ -1864,310 +1865,310 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="65" t="s">
+    <row r="9" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="10" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="66"/>
-      <c r="C10" s="66"/>
-      <c r="D10" s="66"/>
-      <c r="E10" s="67"/>
-      <c r="F10" s="68" t="s">
+      <c r="B10" s="57"/>
+      <c r="C10" s="57"/>
+      <c r="D10" s="57"/>
+      <c r="E10" s="58"/>
+      <c r="F10" s="59" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="69" t="s">
+    <row r="11" spans="1:9" ht="86.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="70"/>
-      <c r="C11" s="70"/>
-      <c r="D11" s="70"/>
-      <c r="E11" s="71"/>
-      <c r="F11" s="68"/>
-    </row>
-    <row r="12" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="69" t="s">
+      <c r="B11" s="61"/>
+      <c r="C11" s="61"/>
+      <c r="D11" s="61"/>
+      <c r="E11" s="62"/>
+      <c r="F11" s="59"/>
+    </row>
+    <row r="12" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="70"/>
-      <c r="C12" s="70"/>
-      <c r="D12" s="70"/>
-      <c r="E12" s="71"/>
-      <c r="F12" s="68"/>
-    </row>
-    <row r="13" spans="1:9" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="69"/>
-      <c r="B13" s="70"/>
-      <c r="C13" s="70"/>
-      <c r="D13" s="70"/>
-      <c r="E13" s="71"/>
-      <c r="F13" s="68"/>
-    </row>
-    <row r="14" spans="1:9" ht="30.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="72"/>
-      <c r="B14" s="73"/>
-      <c r="C14" s="73"/>
-      <c r="D14" s="73"/>
-      <c r="E14" s="74"/>
-      <c r="F14" s="68"/>
-    </row>
-    <row r="15" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="59" t="s">
+      <c r="B12" s="61"/>
+      <c r="C12" s="61"/>
+      <c r="D12" s="61"/>
+      <c r="E12" s="62"/>
+      <c r="F12" s="59"/>
+    </row>
+    <row r="13" spans="1:9" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="60"/>
+      <c r="B13" s="61"/>
+      <c r="C13" s="61"/>
+      <c r="D13" s="61"/>
+      <c r="E13" s="62"/>
+      <c r="F13" s="59"/>
+    </row>
+    <row r="14" spans="1:9" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="63"/>
+      <c r="B14" s="64"/>
+      <c r="C14" s="64"/>
+      <c r="D14" s="64"/>
+      <c r="E14" s="65"/>
+      <c r="F14" s="59"/>
+    </row>
+    <row r="15" spans="1:9" ht="23.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="60"/>
-      <c r="C15" s="60"/>
-      <c r="D15" s="60"/>
-      <c r="E15" s="116"/>
-      <c r="F15" s="120"/>
-      <c r="G15" s="121"/>
-      <c r="H15" s="121"/>
-      <c r="I15" s="111"/>
-    </row>
-    <row r="16" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="50" t="s">
+      <c r="B15" s="67"/>
+      <c r="C15" s="67"/>
+      <c r="D15" s="67"/>
+      <c r="E15" s="68"/>
+      <c r="F15" s="51"/>
+      <c r="G15" s="52"/>
+      <c r="H15" s="52"/>
+      <c r="I15" s="53"/>
+    </row>
+    <row r="16" spans="1:9" ht="23.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="B16" s="62" t="s">
+      <c r="B16" s="71" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="62"/>
-      <c r="D16" s="62"/>
-      <c r="E16" s="117"/>
-      <c r="F16" s="122"/>
-      <c r="G16" s="115"/>
-      <c r="H16" s="115"/>
-      <c r="I16" s="112"/>
-    </row>
-    <row r="17" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="50"/>
-      <c r="B17" s="54" t="s">
+      <c r="C16" s="71"/>
+      <c r="D16" s="71"/>
+      <c r="E16" s="72"/>
+      <c r="F16" s="45"/>
+      <c r="G16" s="46"/>
+      <c r="H16" s="46"/>
+      <c r="I16" s="47"/>
+    </row>
+    <row r="17" spans="1:9" ht="23.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="69"/>
+      <c r="B17" s="73" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="54"/>
-      <c r="D17" s="54"/>
-      <c r="E17" s="55"/>
-      <c r="F17" s="122"/>
-      <c r="G17" s="115"/>
-      <c r="H17" s="115"/>
-      <c r="I17" s="112"/>
-    </row>
-    <row r="18" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="50"/>
-      <c r="B18" s="54" t="s">
+      <c r="C17" s="73"/>
+      <c r="D17" s="73"/>
+      <c r="E17" s="74"/>
+      <c r="F17" s="45"/>
+      <c r="G17" s="46"/>
+      <c r="H17" s="46"/>
+      <c r="I17" s="47"/>
+    </row>
+    <row r="18" spans="1:9" ht="23.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="69"/>
+      <c r="B18" s="73" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="54"/>
-      <c r="D18" s="54"/>
-      <c r="E18" s="55"/>
-      <c r="F18" s="122"/>
-      <c r="G18" s="115"/>
-      <c r="H18" s="115"/>
-      <c r="I18" s="112"/>
-    </row>
-    <row r="19" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="50"/>
-      <c r="B19" s="54" t="s">
+      <c r="C18" s="73"/>
+      <c r="D18" s="73"/>
+      <c r="E18" s="74"/>
+      <c r="F18" s="45"/>
+      <c r="G18" s="46"/>
+      <c r="H18" s="46"/>
+      <c r="I18" s="47"/>
+    </row>
+    <row r="19" spans="1:9" ht="23.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="69"/>
+      <c r="B19" s="73" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="54"/>
-      <c r="D19" s="54"/>
-      <c r="E19" s="55"/>
-      <c r="F19" s="122"/>
-      <c r="G19" s="115"/>
-      <c r="H19" s="115"/>
-      <c r="I19" s="112"/>
-    </row>
-    <row r="20" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="50"/>
-      <c r="B20" s="54" t="s">
+      <c r="C19" s="73"/>
+      <c r="D19" s="73"/>
+      <c r="E19" s="74"/>
+      <c r="F19" s="45"/>
+      <c r="G19" s="46"/>
+      <c r="H19" s="46"/>
+      <c r="I19" s="47"/>
+    </row>
+    <row r="20" spans="1:9" ht="23.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="69"/>
+      <c r="B20" s="73" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="54"/>
-      <c r="D20" s="54"/>
-      <c r="E20" s="55"/>
-      <c r="F20" s="122"/>
-      <c r="G20" s="115"/>
-      <c r="H20" s="115"/>
-      <c r="I20" s="112"/>
-    </row>
-    <row r="21" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="50"/>
-      <c r="B21" s="54" t="s">
+      <c r="C20" s="73"/>
+      <c r="D20" s="73"/>
+      <c r="E20" s="74"/>
+      <c r="F20" s="45"/>
+      <c r="G20" s="46"/>
+      <c r="H20" s="46"/>
+      <c r="I20" s="47"/>
+    </row>
+    <row r="21" spans="1:9" ht="23.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="69"/>
+      <c r="B21" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="54"/>
-      <c r="D21" s="54"/>
-      <c r="E21" s="55"/>
-      <c r="F21" s="122"/>
-      <c r="G21" s="115"/>
-      <c r="H21" s="115"/>
-      <c r="I21" s="112"/>
-    </row>
-    <row r="22" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="50"/>
-      <c r="B22" s="56" t="s">
+      <c r="C21" s="73"/>
+      <c r="D21" s="73"/>
+      <c r="E21" s="74"/>
+      <c r="F21" s="45"/>
+      <c r="G21" s="46"/>
+      <c r="H21" s="46"/>
+      <c r="I21" s="47"/>
+    </row>
+    <row r="22" spans="1:9" ht="23.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="69"/>
+      <c r="B22" s="75" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="56"/>
-      <c r="D22" s="56"/>
-      <c r="E22" s="57"/>
-      <c r="F22" s="122"/>
-      <c r="G22" s="115"/>
-      <c r="H22" s="115"/>
-      <c r="I22" s="112"/>
-    </row>
-    <row r="23" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="50"/>
-      <c r="B23" s="56" t="s">
+      <c r="C22" s="75"/>
+      <c r="D22" s="75"/>
+      <c r="E22" s="76"/>
+      <c r="F22" s="45"/>
+      <c r="G22" s="46"/>
+      <c r="H22" s="46"/>
+      <c r="I22" s="47"/>
+    </row>
+    <row r="23" spans="1:9" ht="23.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="69"/>
+      <c r="B23" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="C23" s="56"/>
-      <c r="D23" s="56"/>
-      <c r="E23" s="57"/>
-      <c r="F23" s="122"/>
-      <c r="G23" s="115"/>
-      <c r="H23" s="115"/>
-      <c r="I23" s="112"/>
-    </row>
-    <row r="24" spans="1:9" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="61"/>
-      <c r="B24" s="48" t="s">
+      <c r="C23" s="75"/>
+      <c r="D23" s="75"/>
+      <c r="E23" s="76"/>
+      <c r="F23" s="45"/>
+      <c r="G23" s="46"/>
+      <c r="H23" s="46"/>
+      <c r="I23" s="47"/>
+    </row>
+    <row r="24" spans="1:9" ht="23.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="70"/>
+      <c r="B24" s="80" t="s">
         <v>11</v>
       </c>
-      <c r="C24" s="48"/>
-      <c r="D24" s="48"/>
-      <c r="E24" s="118"/>
-      <c r="F24" s="124"/>
-      <c r="G24" s="125"/>
-      <c r="H24" s="125"/>
-      <c r="I24" s="114"/>
-    </row>
-    <row r="25" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="49" t="s">
+      <c r="C24" s="80"/>
+      <c r="D24" s="80"/>
+      <c r="E24" s="81"/>
+      <c r="F24" s="48"/>
+      <c r="G24" s="49"/>
+      <c r="H24" s="49"/>
+      <c r="I24" s="50"/>
+    </row>
+    <row r="25" spans="1:9" ht="23.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="82" t="s">
         <v>0</v>
       </c>
-      <c r="B25" s="52" t="s">
+      <c r="B25" s="84" t="s">
         <v>18</v>
       </c>
-      <c r="C25" s="52"/>
-      <c r="D25" s="52"/>
-      <c r="E25" s="53"/>
-      <c r="F25" s="126"/>
-      <c r="G25" s="127"/>
-      <c r="H25" s="127"/>
-      <c r="I25" s="128"/>
-    </row>
-    <row r="26" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="50"/>
-      <c r="B26" s="54" t="s">
+      <c r="C25" s="84"/>
+      <c r="D25" s="84"/>
+      <c r="E25" s="85"/>
+      <c r="F25" s="88"/>
+      <c r="G25" s="89"/>
+      <c r="H25" s="89"/>
+      <c r="I25" s="90"/>
+    </row>
+    <row r="26" spans="1:9" ht="23.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="69"/>
+      <c r="B26" s="73" t="s">
         <v>17</v>
       </c>
-      <c r="C26" s="54"/>
-      <c r="D26" s="54"/>
-      <c r="E26" s="55"/>
-      <c r="F26" s="123"/>
-      <c r="G26" s="54"/>
-      <c r="H26" s="54"/>
-      <c r="I26" s="113"/>
-    </row>
-    <row r="27" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="50"/>
-      <c r="B27" s="54" t="s">
+      <c r="C26" s="73"/>
+      <c r="D26" s="73"/>
+      <c r="E26" s="74"/>
+      <c r="F26" s="91"/>
+      <c r="G26" s="73"/>
+      <c r="H26" s="73"/>
+      <c r="I26" s="92"/>
+    </row>
+    <row r="27" spans="1:9" ht="23.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="69"/>
+      <c r="B27" s="73" t="s">
         <v>16</v>
       </c>
-      <c r="C27" s="54"/>
-      <c r="D27" s="54"/>
-      <c r="E27" s="55"/>
-      <c r="F27" s="123"/>
-      <c r="G27" s="54"/>
-      <c r="H27" s="54"/>
-      <c r="I27" s="113"/>
-    </row>
-    <row r="28" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="50"/>
-      <c r="B28" s="54" t="s">
+      <c r="C27" s="73"/>
+      <c r="D27" s="73"/>
+      <c r="E27" s="74"/>
+      <c r="F27" s="91"/>
+      <c r="G27" s="73"/>
+      <c r="H27" s="73"/>
+      <c r="I27" s="92"/>
+    </row>
+    <row r="28" spans="1:9" ht="23.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="69"/>
+      <c r="B28" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="C28" s="54"/>
-      <c r="D28" s="54"/>
-      <c r="E28" s="55"/>
-      <c r="F28" s="123"/>
-      <c r="G28" s="54"/>
-      <c r="H28" s="54"/>
-      <c r="I28" s="113"/>
-    </row>
-    <row r="29" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="50"/>
-      <c r="B29" s="54" t="s">
+      <c r="C28" s="73"/>
+      <c r="D28" s="73"/>
+      <c r="E28" s="74"/>
+      <c r="F28" s="91"/>
+      <c r="G28" s="73"/>
+      <c r="H28" s="73"/>
+      <c r="I28" s="92"/>
+    </row>
+    <row r="29" spans="1:9" ht="23.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="69"/>
+      <c r="B29" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="C29" s="54"/>
-      <c r="D29" s="54"/>
-      <c r="E29" s="55"/>
-      <c r="F29" s="123"/>
-      <c r="G29" s="54"/>
-      <c r="H29" s="54"/>
-      <c r="I29" s="113"/>
-    </row>
-    <row r="30" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="50"/>
-      <c r="B30" s="56" t="s">
+      <c r="C29" s="73"/>
+      <c r="D29" s="73"/>
+      <c r="E29" s="74"/>
+      <c r="F29" s="91"/>
+      <c r="G29" s="73"/>
+      <c r="H29" s="73"/>
+      <c r="I29" s="92"/>
+    </row>
+    <row r="30" spans="1:9" ht="23.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="69"/>
+      <c r="B30" s="75" t="s">
         <v>13</v>
       </c>
-      <c r="C30" s="56"/>
-      <c r="D30" s="56"/>
-      <c r="E30" s="57"/>
-      <c r="F30" s="122"/>
-      <c r="G30" s="115"/>
-      <c r="H30" s="115"/>
-      <c r="I30" s="112"/>
-    </row>
-    <row r="31" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="50"/>
-      <c r="B31" s="56" t="s">
+      <c r="C30" s="75"/>
+      <c r="D30" s="75"/>
+      <c r="E30" s="76"/>
+      <c r="F30" s="45"/>
+      <c r="G30" s="46"/>
+      <c r="H30" s="46"/>
+      <c r="I30" s="47"/>
+    </row>
+    <row r="31" spans="1:9" ht="23.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="69"/>
+      <c r="B31" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="C31" s="56"/>
-      <c r="D31" s="56"/>
-      <c r="E31" s="57"/>
-      <c r="F31" s="122"/>
-      <c r="G31" s="115"/>
-      <c r="H31" s="115"/>
-      <c r="I31" s="112"/>
-    </row>
-    <row r="32" spans="1:9" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="51"/>
-      <c r="B32" s="58" t="s">
+      <c r="C31" s="75"/>
+      <c r="D31" s="75"/>
+      <c r="E31" s="76"/>
+      <c r="F31" s="45"/>
+      <c r="G31" s="46"/>
+      <c r="H31" s="46"/>
+      <c r="I31" s="47"/>
+    </row>
+    <row r="32" spans="1:9" ht="23.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A32" s="83"/>
+      <c r="B32" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="C32" s="58"/>
-      <c r="D32" s="58"/>
-      <c r="E32" s="119"/>
-      <c r="F32" s="124"/>
-      <c r="G32" s="125"/>
-      <c r="H32" s="125"/>
-      <c r="I32" s="114"/>
-    </row>
-    <row r="33" spans="1:9" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C32" s="86"/>
+      <c r="D32" s="86"/>
+      <c r="E32" s="87"/>
+      <c r="F32" s="48"/>
+      <c r="G32" s="49"/>
+      <c r="H32" s="49"/>
+      <c r="I32" s="50"/>
+    </row>
+    <row r="33" spans="1:9" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="G33" s="25"/>
     </row>
-    <row r="34" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="45" t="s">
+    <row r="34" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A34" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="B34" s="46"/>
-      <c r="C34" s="46"/>
-      <c r="D34" s="46"/>
-      <c r="E34" s="46"/>
-      <c r="F34" s="46"/>
-      <c r="G34" s="46"/>
-      <c r="H34" s="46"/>
-      <c r="I34" s="47"/>
-    </row>
-    <row r="35" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="78"/>
+      <c r="C34" s="78"/>
+      <c r="D34" s="78"/>
+      <c r="E34" s="78"/>
+      <c r="F34" s="78"/>
+      <c r="G34" s="78"/>
+      <c r="H34" s="78"/>
+      <c r="I34" s="79"/>
+    </row>
+    <row r="35" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A35" s="26"/>
       <c r="B35" s="27" t="s">
         <v>9</v>
@@ -2194,7 +2195,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:9" s="31" customFormat="1" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" s="31" customFormat="1" ht="47" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A36" s="28" t="s">
         <v>1</v>
       </c>
@@ -2207,7 +2208,7 @@
       <c r="H36" s="30"/>
       <c r="I36" s="30"/>
     </row>
-    <row r="37" spans="1:9" s="31" customFormat="1" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" s="31" customFormat="1" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="32" t="s">
         <v>0</v>
       </c>
@@ -2222,36 +2223,6 @@
     </row>
   </sheetData>
   <mergeCells count="46">
-    <mergeCell ref="F30:I30"/>
-    <mergeCell ref="F31:I31"/>
-    <mergeCell ref="F32:I32"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="F22:I22"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="F15:I15"/>
-    <mergeCell ref="F16:I16"/>
-    <mergeCell ref="F17:I17"/>
-    <mergeCell ref="F18:I18"/>
-    <mergeCell ref="F19:I19"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A4:I4"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="F10:F14"/>
-    <mergeCell ref="A11:E11"/>
-    <mergeCell ref="A12:E14"/>
-    <mergeCell ref="A15:E15"/>
-    <mergeCell ref="A16:A24"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="B23:E23"/>
     <mergeCell ref="A34:I34"/>
     <mergeCell ref="B24:E24"/>
     <mergeCell ref="A25:A32"/>
@@ -2268,6 +2239,36 @@
     <mergeCell ref="F27:I27"/>
     <mergeCell ref="F28:I28"/>
     <mergeCell ref="F29:I29"/>
+    <mergeCell ref="A15:E15"/>
+    <mergeCell ref="A16:A24"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="F10:F14"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="A12:E14"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="F16:I16"/>
+    <mergeCell ref="F17:I17"/>
+    <mergeCell ref="F18:I18"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="F30:I30"/>
+    <mergeCell ref="F31:I31"/>
+    <mergeCell ref="F32:I32"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="F24:I24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="50" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -2275,22 +2276,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:AC19"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A7" zoomScale="55" zoomScaleNormal="100" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <selection activeCell="AE9" sqref="AE9"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="16384" width="9.1796875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -2300,49 +2301,49 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="100" t="s">
+    <row r="2" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="97" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="100"/>
-      <c r="C2" s="100"/>
-      <c r="D2" s="100"/>
-      <c r="E2" s="100"/>
-      <c r="F2" s="100"/>
-      <c r="G2" s="100"/>
-      <c r="H2" s="100"/>
-      <c r="I2" s="100"/>
-      <c r="J2" s="100"/>
-      <c r="K2" s="100"/>
-      <c r="L2" s="100"/>
-      <c r="M2" s="100"/>
-      <c r="N2" s="100"/>
-      <c r="O2" s="100"/>
-      <c r="P2" s="100"/>
-      <c r="Q2" s="100"/>
-      <c r="R2" s="100"/>
-      <c r="S2" s="100"/>
-      <c r="T2" s="100"/>
-      <c r="U2" s="100"/>
-      <c r="V2" s="100"/>
-      <c r="W2" s="100"/>
-      <c r="X2" s="100"/>
-      <c r="Y2" s="100"/>
-      <c r="Z2" s="100"/>
-      <c r="AA2" s="100"/>
-      <c r="AB2" s="100"/>
-    </row>
-    <row r="3" spans="1:29" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="101" t="s">
+      <c r="B2" s="97"/>
+      <c r="C2" s="97"/>
+      <c r="D2" s="97"/>
+      <c r="E2" s="97"/>
+      <c r="F2" s="97"/>
+      <c r="G2" s="97"/>
+      <c r="H2" s="97"/>
+      <c r="I2" s="97"/>
+      <c r="J2" s="97"/>
+      <c r="K2" s="97"/>
+      <c r="L2" s="97"/>
+      <c r="M2" s="97"/>
+      <c r="N2" s="97"/>
+      <c r="O2" s="97"/>
+      <c r="P2" s="97"/>
+      <c r="Q2" s="97"/>
+      <c r="R2" s="97"/>
+      <c r="S2" s="97"/>
+      <c r="T2" s="97"/>
+      <c r="U2" s="97"/>
+      <c r="V2" s="97"/>
+      <c r="W2" s="97"/>
+      <c r="X2" s="97"/>
+      <c r="Y2" s="97"/>
+      <c r="Z2" s="97"/>
+      <c r="AA2" s="97"/>
+      <c r="AB2" s="97"/>
+    </row>
+    <row r="3" spans="1:29" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="98" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="101"/>
-      <c r="C3" s="101"/>
-      <c r="D3" s="101"/>
-      <c r="E3" s="101"/>
-      <c r="F3" s="101"/>
-      <c r="G3" s="78"/>
-      <c r="H3" s="78"/>
+      <c r="B3" s="98"/>
+      <c r="C3" s="98"/>
+      <c r="D3" s="98"/>
+      <c r="E3" s="98"/>
+      <c r="F3" s="98"/>
+      <c r="G3" s="127"/>
+      <c r="H3" s="127"/>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
@@ -2364,17 +2365,17 @@
       <c r="AA3" s="4"/>
       <c r="AB3" s="4"/>
     </row>
-    <row r="4" spans="1:29" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="101" t="s">
-        <v>39</v>
-      </c>
-      <c r="B4" s="101"/>
-      <c r="C4" s="101"/>
-      <c r="D4" s="101"/>
-      <c r="E4" s="101"/>
-      <c r="F4" s="101"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
+    <row r="4" spans="1:29" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="98" t="s">
+        <v>78</v>
+      </c>
+      <c r="B4" s="98"/>
+      <c r="C4" s="98"/>
+      <c r="D4" s="98"/>
+      <c r="E4" s="98"/>
+      <c r="F4" s="98"/>
+      <c r="G4" s="127"/>
+      <c r="H4" s="127"/>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
@@ -2396,177 +2397,177 @@
       <c r="AA4" s="4"/>
       <c r="AB4" s="4"/>
     </row>
-    <row r="5" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="101" t="s">
+    <row r="5" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="98" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" s="98"/>
+      <c r="C5" s="98"/>
+      <c r="D5" s="98"/>
+      <c r="E5" s="98"/>
+      <c r="F5" s="98"/>
+      <c r="G5" s="128"/>
+      <c r="H5" s="128"/>
+    </row>
+    <row r="6" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="7" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="99" t="s">
         <v>40</v>
       </c>
-      <c r="B5" s="101"/>
-      <c r="C5" s="101"/>
-      <c r="D5" s="101"/>
-      <c r="E5" s="101"/>
-      <c r="F5" s="101"/>
-      <c r="G5" s="79"/>
-      <c r="H5" s="79"/>
-    </row>
-    <row r="6" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="102" t="s">
+      <c r="B7" s="102" t="s">
         <v>41</v>
       </c>
-      <c r="B7" s="105" t="s">
+      <c r="C7" s="103"/>
+      <c r="D7" s="104" t="s">
         <v>42</v>
       </c>
-      <c r="C7" s="106"/>
-      <c r="D7" s="90" t="s">
+      <c r="E7" s="105"/>
+      <c r="F7" s="105"/>
+      <c r="G7" s="105"/>
+      <c r="H7" s="105"/>
+      <c r="I7" s="105"/>
+      <c r="J7" s="106"/>
+      <c r="K7" s="104" t="s">
         <v>43</v>
       </c>
-      <c r="E7" s="91"/>
-      <c r="F7" s="91"/>
-      <c r="G7" s="91"/>
-      <c r="H7" s="91"/>
-      <c r="I7" s="91"/>
-      <c r="J7" s="92"/>
-      <c r="K7" s="90" t="s">
+      <c r="L7" s="105"/>
+      <c r="M7" s="106"/>
+      <c r="N7" s="104" t="s">
+        <v>9</v>
+      </c>
+      <c r="O7" s="106"/>
+      <c r="P7" s="104" t="s">
         <v>44</v>
       </c>
-      <c r="L7" s="91"/>
-      <c r="M7" s="92"/>
-      <c r="N7" s="90" t="s">
-        <v>9</v>
-      </c>
-      <c r="O7" s="92"/>
-      <c r="P7" s="90" t="s">
+      <c r="Q7" s="106"/>
+      <c r="R7" s="104" t="s">
         <v>45</v>
       </c>
-      <c r="Q7" s="92"/>
-      <c r="R7" s="90" t="s">
-        <v>46</v>
-      </c>
-      <c r="S7" s="91"/>
-      <c r="T7" s="91"/>
-      <c r="U7" s="91"/>
-      <c r="V7" s="91"/>
-      <c r="W7" s="91"/>
-      <c r="X7" s="91"/>
-      <c r="Y7" s="91"/>
+      <c r="S7" s="105"/>
+      <c r="T7" s="105"/>
+      <c r="U7" s="105"/>
+      <c r="V7" s="105"/>
+      <c r="W7" s="105"/>
+      <c r="X7" s="105"/>
+      <c r="Y7" s="105"/>
       <c r="Z7" s="107"/>
       <c r="AA7" s="108" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB7" s="108" t="s">
         <v>47</v>
       </c>
-      <c r="AB7" s="108" t="s">
+      <c r="AC7" s="5"/>
+    </row>
+    <row r="8" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="100"/>
+      <c r="B8" s="111" t="s">
         <v>48</v>
       </c>
-      <c r="AC7" s="5"/>
-    </row>
-    <row r="8" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="103"/>
-      <c r="B8" s="109" t="s">
+      <c r="C8" s="93" t="s">
         <v>49</v>
       </c>
-      <c r="C8" s="95" t="s">
+      <c r="D8" s="93" t="s">
         <v>50</v>
       </c>
-      <c r="D8" s="95" t="s">
+      <c r="E8" s="93" t="s">
         <v>51</v>
       </c>
-      <c r="E8" s="95" t="s">
+      <c r="F8" s="93" t="s">
         <v>52</v>
       </c>
-      <c r="F8" s="95" t="s">
+      <c r="G8" s="93" t="s">
         <v>53</v>
       </c>
-      <c r="G8" s="95" t="s">
+      <c r="H8" s="113" t="s">
         <v>54</v>
       </c>
-      <c r="H8" s="97" t="s">
+      <c r="I8" s="104" t="s">
         <v>55</v>
       </c>
-      <c r="I8" s="90" t="s">
+      <c r="J8" s="106"/>
+      <c r="K8" s="109" t="s">
         <v>56</v>
       </c>
-      <c r="J8" s="92"/>
-      <c r="K8" s="93" t="s">
+      <c r="L8" s="93" t="s">
         <v>57</v>
       </c>
-      <c r="L8" s="95" t="s">
+      <c r="M8" s="93" t="s">
+        <v>49</v>
+      </c>
+      <c r="N8" s="93" t="s">
         <v>58</v>
       </c>
-      <c r="M8" s="95" t="s">
-        <v>50</v>
-      </c>
-      <c r="N8" s="95" t="s">
+      <c r="O8" s="93" t="s">
         <v>59</v>
       </c>
-      <c r="O8" s="95" t="s">
+      <c r="P8" s="93" t="s">
         <v>60</v>
       </c>
-      <c r="P8" s="95" t="s">
+      <c r="Q8" s="109" t="s">
         <v>61</v>
       </c>
-      <c r="Q8" s="93" t="s">
+      <c r="R8" s="109" t="s">
         <v>62</v>
       </c>
-      <c r="R8" s="93" t="s">
+      <c r="S8" s="95" t="s">
         <v>63</v>
       </c>
-      <c r="S8" s="98" t="s">
+      <c r="T8" s="93" t="s">
         <v>64</v>
       </c>
-      <c r="T8" s="95" t="s">
+      <c r="U8" s="113" t="s">
+        <v>53</v>
+      </c>
+      <c r="V8" s="104" t="s">
         <v>65</v>
       </c>
-      <c r="U8" s="97" t="s">
-        <v>54</v>
-      </c>
-      <c r="V8" s="90" t="s">
+      <c r="W8" s="105"/>
+      <c r="X8" s="105"/>
+      <c r="Y8" s="106"/>
+      <c r="Z8" s="109" t="s">
         <v>66</v>
       </c>
-      <c r="W8" s="91"/>
-      <c r="X8" s="91"/>
-      <c r="Y8" s="92"/>
-      <c r="Z8" s="93" t="s">
+      <c r="AA8" s="109"/>
+      <c r="AB8" s="109"/>
+      <c r="AC8" s="17"/>
+    </row>
+    <row r="9" spans="1:29" ht="320.14999999999998" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="101"/>
+      <c r="B9" s="112"/>
+      <c r="C9" s="94"/>
+      <c r="D9" s="94"/>
+      <c r="E9" s="94"/>
+      <c r="F9" s="94"/>
+      <c r="G9" s="94"/>
+      <c r="H9" s="94"/>
+      <c r="I9" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="AA8" s="93"/>
-      <c r="AB8" s="93"/>
-      <c r="AC8" s="17"/>
-    </row>
-    <row r="9" spans="1:29" ht="320.10000000000002" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="104"/>
-      <c r="B9" s="110"/>
-      <c r="C9" s="96"/>
-      <c r="D9" s="96"/>
-      <c r="E9" s="96"/>
-      <c r="F9" s="96"/>
-      <c r="G9" s="96"/>
-      <c r="H9" s="96"/>
-      <c r="I9" s="6" t="s">
+      <c r="J9" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="J9" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="K9" s="94"/>
-      <c r="L9" s="96"/>
-      <c r="M9" s="96"/>
-      <c r="N9" s="96"/>
-      <c r="O9" s="96"/>
-      <c r="P9" s="96"/>
-      <c r="Q9" s="94"/>
-      <c r="R9" s="94"/>
-      <c r="S9" s="99"/>
-      <c r="T9" s="96"/>
-      <c r="U9" s="96"/>
+      <c r="K9" s="110"/>
+      <c r="L9" s="94"/>
+      <c r="M9" s="94"/>
+      <c r="N9" s="94"/>
+      <c r="O9" s="94"/>
+      <c r="P9" s="94"/>
+      <c r="Q9" s="110"/>
+      <c r="R9" s="110"/>
+      <c r="S9" s="96"/>
+      <c r="T9" s="94"/>
+      <c r="U9" s="94"/>
       <c r="V9" s="18"/>
       <c r="W9" s="18"/>
       <c r="X9" s="18"/>
       <c r="Y9" s="18"/>
-      <c r="Z9" s="94"/>
-      <c r="AA9" s="94"/>
-      <c r="AB9" s="94"/>
+      <c r="Z9" s="110"/>
+      <c r="AA9" s="110"/>
+      <c r="AB9" s="110"/>
       <c r="AC9" s="5"/>
     </row>
-    <row r="10" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="33">
         <v>1</v>
       </c>
@@ -2653,7 +2654,7 @@
       </c>
       <c r="AC10" s="5"/>
     </row>
-    <row r="11" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="34"/>
       <c r="B11" s="34"/>
       <c r="C11" s="34"/>
@@ -2683,9 +2684,9 @@
       <c r="AA11" s="34"/>
       <c r="AB11" s="34"/>
     </row>
-    <row r="13" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -2694,88 +2695,120 @@
       <c r="N13" s="14"/>
       <c r="O13" s="14"/>
     </row>
-    <row r="14" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="81" t="s">
+    <row r="14" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="116" t="s">
+        <v>70</v>
+      </c>
+      <c r="B14" s="117"/>
+      <c r="C14" s="116" t="s">
         <v>71</v>
       </c>
-      <c r="B14" s="82"/>
-      <c r="C14" s="81" t="s">
+      <c r="D14" s="117"/>
+      <c r="E14" s="118" t="s">
         <v>72</v>
       </c>
-      <c r="D14" s="82"/>
-      <c r="E14" s="83" t="s">
-        <v>73</v>
-      </c>
-      <c r="F14" s="84"/>
-      <c r="G14" s="84"/>
-      <c r="H14" s="84"/>
-      <c r="I14" s="84"/>
-      <c r="J14" s="85"/>
+      <c r="F14" s="119"/>
+      <c r="G14" s="119"/>
+      <c r="H14" s="119"/>
+      <c r="I14" s="119"/>
+      <c r="J14" s="120"/>
       <c r="N14" s="14"/>
       <c r="O14" s="14"/>
     </row>
-    <row r="15" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="86"/>
-      <c r="B15" s="82"/>
-      <c r="C15" s="86"/>
-      <c r="D15" s="82"/>
-      <c r="E15" s="87"/>
-      <c r="F15" s="88"/>
-      <c r="G15" s="88"/>
-      <c r="H15" s="88"/>
-      <c r="I15" s="88"/>
-      <c r="J15" s="89"/>
+    <row r="15" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="121"/>
+      <c r="B15" s="117"/>
+      <c r="C15" s="121"/>
+      <c r="D15" s="117"/>
+      <c r="E15" s="122"/>
+      <c r="F15" s="123"/>
+      <c r="G15" s="123"/>
+      <c r="H15" s="123"/>
+      <c r="I15" s="123"/>
+      <c r="J15" s="124"/>
       <c r="O15" s="14"/>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.35">
       <c r="O16" s="14"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17" s="15"/>
       <c r="B17" s="14"/>
       <c r="C17" s="14"/>
       <c r="D17" s="14"/>
     </row>
-    <row r="18" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="80" t="s">
-        <v>74</v>
-      </c>
-      <c r="B18" s="80"/>
-      <c r="C18" s="80"/>
+    <row r="18" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="114" t="s">
+        <v>73</v>
+      </c>
+      <c r="B18" s="114"/>
+      <c r="C18" s="114"/>
       <c r="D18" s="41"/>
       <c r="E18" s="42"/>
-      <c r="F18" s="75"/>
-      <c r="G18" s="75"/>
+      <c r="F18" s="115"/>
+      <c r="G18" s="115"/>
       <c r="H18" s="42"/>
       <c r="I18" s="41"/>
       <c r="J18" s="42"/>
-      <c r="K18" s="75"/>
-      <c r="L18" s="75"/>
-    </row>
-    <row r="19" spans="1:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K18" s="115"/>
+      <c r="L18" s="115"/>
+    </row>
+    <row r="19" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="16"/>
       <c r="B19" s="14"/>
       <c r="C19" s="16"/>
       <c r="D19" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="E19" s="44"/>
+      <c r="F19" s="125" t="s">
         <v>75</v>
       </c>
-      <c r="E19" s="44"/>
-      <c r="F19" s="76" t="s">
-        <v>76</v>
-      </c>
-      <c r="G19" s="76"/>
+      <c r="G19" s="125"/>
       <c r="H19" s="43"/>
       <c r="I19" s="43" t="s">
+        <v>76</v>
+      </c>
+      <c r="J19" s="43"/>
+      <c r="K19" s="126" t="s">
         <v>77</v>
       </c>
-      <c r="J19" s="43"/>
-      <c r="K19" s="77" t="s">
-        <v>78</v>
-      </c>
-      <c r="L19" s="77"/>
+      <c r="L19" s="126"/>
     </row>
   </sheetData>
   <mergeCells count="48">
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="Q8:Q9"/>
+    <mergeCell ref="R8:R9"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:J14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:J15"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="AB7:AB9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="V8:Y8"/>
+    <mergeCell ref="Z8:Z9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="U8:U9"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="O8:O9"/>
+    <mergeCell ref="P8:P9"/>
     <mergeCell ref="C8:C9"/>
     <mergeCell ref="D8:D9"/>
     <mergeCell ref="S8:S9"/>
@@ -2792,41 +2825,9 @@
     <mergeCell ref="P7:Q7"/>
     <mergeCell ref="R7:Z7"/>
     <mergeCell ref="AA7:AA9"/>
-    <mergeCell ref="AB7:AB9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="V8:Y8"/>
-    <mergeCell ref="Z8:Z9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="U8:U9"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="K8:K9"/>
-    <mergeCell ref="L8:L9"/>
-    <mergeCell ref="M8:M9"/>
-    <mergeCell ref="N8:N9"/>
-    <mergeCell ref="O8:O9"/>
-    <mergeCell ref="P8:P9"/>
-    <mergeCell ref="Q8:Q9"/>
-    <mergeCell ref="R8:R9"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:J14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:J15"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="G5:H5"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="51" fitToHeight="1000" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="50" fitToHeight="1000" orientation="landscape" r:id="rId1"/>
   <colBreaks count="1" manualBreakCount="1">
     <brk id="28" max="1048575" man="1"/>
   </colBreaks>

--- a/data/Excel/1.8.xlsx
+++ b/data/Excel/1.8.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27932"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\RAO_Project\data\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oaa\Documents\GitHub\RAO_Project\data\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{989D3F0F-7A62-4CD4-8CDC-A6FF0A2115DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A492D717-F347-48FE-A0C7-FBA2532D5E64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1.0" sheetId="5" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="83">
   <si>
     <t>Сведения об обособленном подразделении</t>
   </si>
@@ -303,12 +303,24 @@
   <si>
     <t>Дата окончания настоящего отчетного периода</t>
   </si>
+  <si>
+    <t>тритий</t>
+  </si>
+  <si>
+    <t>бета-, гамма-излучающие радионуклиды (исключая тритий)</t>
+  </si>
+  <si>
+    <t>альфа-излучающие радионуклиды (исключая трансурановые)</t>
+  </si>
+  <si>
+    <t>трансурановые радионуклиды</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -402,6 +414,12 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -925,19 +943,6 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="8"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
@@ -1110,6 +1115,21 @@
       </right>
       <top/>
       <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="8"/>
+      </left>
+      <right style="medium">
+        <color indexed="8"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -1142,13 +1162,13 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="40" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="41" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="42" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="43" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1171,9 +1191,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="40" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
@@ -1185,7 +1202,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
@@ -1213,23 +1230,23 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="45" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="44" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="33" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="45" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="46" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="47" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="48" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1247,6 +1264,132 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="50" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="51" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="52" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="53" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="54" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1265,131 +1408,74 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="51" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="52" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="53" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="54" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="55" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="38" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="48" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="49" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="48" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="32" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="33" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
@@ -1397,6 +1483,9 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="37" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="44" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="34" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
@@ -1424,80 +1513,11 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="55" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="38" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="32" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="45" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="49" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="50" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="49" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1788,441 +1808,471 @@
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.7265625" style="19" customWidth="1"/>
-    <col min="2" max="2" width="12.81640625" style="19" customWidth="1"/>
-    <col min="3" max="3" width="10.453125" style="19" customWidth="1"/>
-    <col min="4" max="4" width="16.81640625" style="19" customWidth="1"/>
-    <col min="5" max="5" width="40.26953125" style="19" customWidth="1"/>
-    <col min="6" max="6" width="37.453125" style="19" customWidth="1"/>
-    <col min="7" max="9" width="10.54296875" style="19" customWidth="1"/>
-    <col min="10" max="16384" width="9.1796875" style="19"/>
+    <col min="1" max="1" width="16.7109375" style="18" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" style="18" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" style="18" customWidth="1"/>
+    <col min="4" max="4" width="16.85546875" style="18" customWidth="1"/>
+    <col min="5" max="5" width="40.28515625" style="18" customWidth="1"/>
+    <col min="6" max="6" width="37.42578125" style="18" customWidth="1"/>
+    <col min="7" max="9" width="10.5703125" style="18" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="I1" s="20" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I1" s="19" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A2" s="54" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="71" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="54"/>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="54"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A3" s="55" t="s">
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="71"/>
+      <c r="H2" s="71"/>
+      <c r="I2" s="71"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="72" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="55"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
-      <c r="I3" s="55"/>
-    </row>
-    <row r="4" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="55" t="s">
+      <c r="B3" s="72"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="72"/>
+      <c r="H3" s="72"/>
+      <c r="I3" s="72"/>
+    </row>
+    <row r="4" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="72" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="55"/>
-      <c r="C4" s="55"/>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="55"/>
-      <c r="G4" s="55"/>
-      <c r="H4" s="55"/>
-      <c r="I4" s="55"/>
-    </row>
-    <row r="5" spans="1:9" ht="2.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="21"/>
-      <c r="B5" s="21"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="21"/>
-    </row>
-    <row r="6" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D6" s="22"/>
-      <c r="E6" s="22" t="s">
+      <c r="B4" s="72"/>
+      <c r="C4" s="72"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="72"/>
+      <c r="H4" s="72"/>
+      <c r="I4" s="72"/>
+    </row>
+    <row r="5" spans="1:9" ht="2.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="20"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="20"/>
+    </row>
+    <row r="6" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D6" s="21"/>
+      <c r="E6" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="F6" s="23"/>
-      <c r="G6" s="24" t="s">
+      <c r="F6" s="22"/>
+      <c r="G6" s="23" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="10" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="56" t="s">
+    <row r="9" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="73" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="57"/>
-      <c r="C10" s="57"/>
-      <c r="D10" s="57"/>
-      <c r="E10" s="58"/>
-      <c r="F10" s="59" t="s">
+      <c r="B10" s="74"/>
+      <c r="C10" s="74"/>
+      <c r="D10" s="74"/>
+      <c r="E10" s="75"/>
+      <c r="F10" s="76" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="86.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="60" t="s">
+    <row r="11" spans="1:9" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="77" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="61"/>
-      <c r="C11" s="61"/>
-      <c r="D11" s="61"/>
-      <c r="E11" s="62"/>
-      <c r="F11" s="59"/>
-    </row>
-    <row r="12" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="60" t="s">
+      <c r="B11" s="78"/>
+      <c r="C11" s="78"/>
+      <c r="D11" s="78"/>
+      <c r="E11" s="79"/>
+      <c r="F11" s="76"/>
+    </row>
+    <row r="12" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="77" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="61"/>
-      <c r="C12" s="61"/>
-      <c r="D12" s="61"/>
-      <c r="E12" s="62"/>
-      <c r="F12" s="59"/>
-    </row>
-    <row r="13" spans="1:9" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="60"/>
-      <c r="B13" s="61"/>
-      <c r="C13" s="61"/>
-      <c r="D13" s="61"/>
-      <c r="E13" s="62"/>
-      <c r="F13" s="59"/>
-    </row>
-    <row r="14" spans="1:9" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="63"/>
-      <c r="B14" s="64"/>
-      <c r="C14" s="64"/>
-      <c r="D14" s="64"/>
-      <c r="E14" s="65"/>
-      <c r="F14" s="59"/>
-    </row>
-    <row r="15" spans="1:9" ht="23.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="66" t="s">
+      <c r="B12" s="78"/>
+      <c r="C12" s="78"/>
+      <c r="D12" s="78"/>
+      <c r="E12" s="79"/>
+      <c r="F12" s="76"/>
+    </row>
+    <row r="13" spans="1:9" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="77"/>
+      <c r="B13" s="78"/>
+      <c r="C13" s="78"/>
+      <c r="D13" s="78"/>
+      <c r="E13" s="79"/>
+      <c r="F13" s="76"/>
+    </row>
+    <row r="14" spans="1:9" ht="30.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="80"/>
+      <c r="B14" s="81"/>
+      <c r="C14" s="81"/>
+      <c r="D14" s="81"/>
+      <c r="E14" s="82"/>
+      <c r="F14" s="76"/>
+    </row>
+    <row r="15" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="65" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="67"/>
-      <c r="C15" s="67"/>
-      <c r="D15" s="67"/>
-      <c r="E15" s="68"/>
-      <c r="F15" s="51"/>
-      <c r="G15" s="52"/>
-      <c r="H15" s="52"/>
-      <c r="I15" s="53"/>
-    </row>
-    <row r="16" spans="1:9" ht="23.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="69" t="s">
+      <c r="B15" s="66"/>
+      <c r="C15" s="66"/>
+      <c r="D15" s="66"/>
+      <c r="E15" s="67"/>
+      <c r="F15" s="83"/>
+      <c r="G15" s="84"/>
+      <c r="H15" s="84"/>
+      <c r="I15" s="85"/>
+    </row>
+    <row r="16" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="B16" s="71" t="s">
+      <c r="B16" s="69" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="71"/>
-      <c r="D16" s="71"/>
-      <c r="E16" s="72"/>
-      <c r="F16" s="45"/>
-      <c r="G16" s="46"/>
-      <c r="H16" s="46"/>
-      <c r="I16" s="47"/>
-    </row>
-    <row r="17" spans="1:9" ht="23.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="69"/>
-      <c r="B17" s="73" t="s">
+      <c r="C16" s="69"/>
+      <c r="D16" s="69"/>
+      <c r="E16" s="70"/>
+      <c r="F16" s="86"/>
+      <c r="G16" s="87"/>
+      <c r="H16" s="87"/>
+      <c r="I16" s="88"/>
+    </row>
+    <row r="17" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="50"/>
+      <c r="B17" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="73"/>
-      <c r="D17" s="73"/>
-      <c r="E17" s="74"/>
-      <c r="F17" s="45"/>
-      <c r="G17" s="46"/>
-      <c r="H17" s="46"/>
-      <c r="I17" s="47"/>
-    </row>
-    <row r="18" spans="1:9" ht="23.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="69"/>
-      <c r="B18" s="73" t="s">
+      <c r="C17" s="54"/>
+      <c r="D17" s="54"/>
+      <c r="E17" s="55"/>
+      <c r="F17" s="86"/>
+      <c r="G17" s="87"/>
+      <c r="H17" s="87"/>
+      <c r="I17" s="88"/>
+    </row>
+    <row r="18" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="50"/>
+      <c r="B18" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="73"/>
-      <c r="D18" s="73"/>
-      <c r="E18" s="74"/>
-      <c r="F18" s="45"/>
-      <c r="G18" s="46"/>
-      <c r="H18" s="46"/>
-      <c r="I18" s="47"/>
-    </row>
-    <row r="19" spans="1:9" ht="23.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="69"/>
-      <c r="B19" s="73" t="s">
+      <c r="C18" s="54"/>
+      <c r="D18" s="54"/>
+      <c r="E18" s="55"/>
+      <c r="F18" s="86"/>
+      <c r="G18" s="87"/>
+      <c r="H18" s="87"/>
+      <c r="I18" s="88"/>
+    </row>
+    <row r="19" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="50"/>
+      <c r="B19" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="73"/>
-      <c r="D19" s="73"/>
-      <c r="E19" s="74"/>
-      <c r="F19" s="45"/>
-      <c r="G19" s="46"/>
-      <c r="H19" s="46"/>
-      <c r="I19" s="47"/>
-    </row>
-    <row r="20" spans="1:9" ht="23.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="69"/>
-      <c r="B20" s="73" t="s">
+      <c r="C19" s="54"/>
+      <c r="D19" s="54"/>
+      <c r="E19" s="55"/>
+      <c r="F19" s="86"/>
+      <c r="G19" s="87"/>
+      <c r="H19" s="87"/>
+      <c r="I19" s="88"/>
+    </row>
+    <row r="20" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="50"/>
+      <c r="B20" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="73"/>
-      <c r="D20" s="73"/>
-      <c r="E20" s="74"/>
-      <c r="F20" s="45"/>
-      <c r="G20" s="46"/>
-      <c r="H20" s="46"/>
-      <c r="I20" s="47"/>
-    </row>
-    <row r="21" spans="1:9" ht="23.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="69"/>
-      <c r="B21" s="73" t="s">
+      <c r="C20" s="54"/>
+      <c r="D20" s="54"/>
+      <c r="E20" s="55"/>
+      <c r="F20" s="86"/>
+      <c r="G20" s="87"/>
+      <c r="H20" s="87"/>
+      <c r="I20" s="88"/>
+    </row>
+    <row r="21" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="50"/>
+      <c r="B21" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="73"/>
-      <c r="D21" s="73"/>
-      <c r="E21" s="74"/>
-      <c r="F21" s="45"/>
-      <c r="G21" s="46"/>
-      <c r="H21" s="46"/>
-      <c r="I21" s="47"/>
-    </row>
-    <row r="22" spans="1:9" ht="23.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="69"/>
-      <c r="B22" s="75" t="s">
+      <c r="C21" s="54"/>
+      <c r="D21" s="54"/>
+      <c r="E21" s="55"/>
+      <c r="F21" s="86"/>
+      <c r="G21" s="87"/>
+      <c r="H21" s="87"/>
+      <c r="I21" s="88"/>
+    </row>
+    <row r="22" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="50"/>
+      <c r="B22" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="75"/>
-      <c r="D22" s="75"/>
-      <c r="E22" s="76"/>
-      <c r="F22" s="45"/>
-      <c r="G22" s="46"/>
-      <c r="H22" s="46"/>
-      <c r="I22" s="47"/>
-    </row>
-    <row r="23" spans="1:9" ht="23.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="69"/>
-      <c r="B23" s="75" t="s">
+      <c r="C22" s="56"/>
+      <c r="D22" s="56"/>
+      <c r="E22" s="57"/>
+      <c r="F22" s="86"/>
+      <c r="G22" s="87"/>
+      <c r="H22" s="87"/>
+      <c r="I22" s="88"/>
+    </row>
+    <row r="23" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="50"/>
+      <c r="B23" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="C23" s="75"/>
-      <c r="D23" s="75"/>
-      <c r="E23" s="76"/>
-      <c r="F23" s="45"/>
-      <c r="G23" s="46"/>
-      <c r="H23" s="46"/>
-      <c r="I23" s="47"/>
-    </row>
-    <row r="24" spans="1:9" ht="23.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="70"/>
-      <c r="B24" s="80" t="s">
+      <c r="C23" s="56"/>
+      <c r="D23" s="56"/>
+      <c r="E23" s="57"/>
+      <c r="F23" s="86"/>
+      <c r="G23" s="87"/>
+      <c r="H23" s="87"/>
+      <c r="I23" s="88"/>
+    </row>
+    <row r="24" spans="1:9" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="68"/>
+      <c r="B24" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="C24" s="80"/>
-      <c r="D24" s="80"/>
-      <c r="E24" s="81"/>
-      <c r="F24" s="48"/>
-      <c r="G24" s="49"/>
-      <c r="H24" s="49"/>
-      <c r="I24" s="50"/>
-    </row>
-    <row r="25" spans="1:9" ht="23.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="82" t="s">
+      <c r="C24" s="47"/>
+      <c r="D24" s="47"/>
+      <c r="E24" s="48"/>
+      <c r="F24" s="89"/>
+      <c r="G24" s="90"/>
+      <c r="H24" s="90"/>
+      <c r="I24" s="91"/>
+    </row>
+    <row r="25" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B25" s="84" t="s">
+      <c r="B25" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="C25" s="84"/>
-      <c r="D25" s="84"/>
-      <c r="E25" s="85"/>
-      <c r="F25" s="88"/>
-      <c r="G25" s="89"/>
-      <c r="H25" s="89"/>
-      <c r="I25" s="90"/>
-    </row>
-    <row r="26" spans="1:9" ht="23.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="69"/>
-      <c r="B26" s="73" t="s">
+      <c r="C25" s="52"/>
+      <c r="D25" s="52"/>
+      <c r="E25" s="53"/>
+      <c r="F25" s="60"/>
+      <c r="G25" s="61"/>
+      <c r="H25" s="61"/>
+      <c r="I25" s="62"/>
+    </row>
+    <row r="26" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="50"/>
+      <c r="B26" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="C26" s="73"/>
-      <c r="D26" s="73"/>
-      <c r="E26" s="74"/>
-      <c r="F26" s="91"/>
-      <c r="G26" s="73"/>
-      <c r="H26" s="73"/>
-      <c r="I26" s="92"/>
-    </row>
-    <row r="27" spans="1:9" ht="23.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="69"/>
-      <c r="B27" s="73" t="s">
+      <c r="C26" s="54"/>
+      <c r="D26" s="54"/>
+      <c r="E26" s="55"/>
+      <c r="F26" s="63"/>
+      <c r="G26" s="54"/>
+      <c r="H26" s="54"/>
+      <c r="I26" s="64"/>
+    </row>
+    <row r="27" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="50"/>
+      <c r="B27" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="C27" s="73"/>
-      <c r="D27" s="73"/>
-      <c r="E27" s="74"/>
-      <c r="F27" s="91"/>
-      <c r="G27" s="73"/>
-      <c r="H27" s="73"/>
-      <c r="I27" s="92"/>
-    </row>
-    <row r="28" spans="1:9" ht="23.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="69"/>
-      <c r="B28" s="73" t="s">
+      <c r="C27" s="54"/>
+      <c r="D27" s="54"/>
+      <c r="E27" s="55"/>
+      <c r="F27" s="63"/>
+      <c r="G27" s="54"/>
+      <c r="H27" s="54"/>
+      <c r="I27" s="64"/>
+    </row>
+    <row r="28" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="50"/>
+      <c r="B28" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="C28" s="73"/>
-      <c r="D28" s="73"/>
-      <c r="E28" s="74"/>
-      <c r="F28" s="91"/>
-      <c r="G28" s="73"/>
-      <c r="H28" s="73"/>
-      <c r="I28" s="92"/>
-    </row>
-    <row r="29" spans="1:9" ht="23.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="69"/>
-      <c r="B29" s="73" t="s">
+      <c r="C28" s="54"/>
+      <c r="D28" s="54"/>
+      <c r="E28" s="55"/>
+      <c r="F28" s="63"/>
+      <c r="G28" s="54"/>
+      <c r="H28" s="54"/>
+      <c r="I28" s="64"/>
+    </row>
+    <row r="29" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="50"/>
+      <c r="B29" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="C29" s="73"/>
-      <c r="D29" s="73"/>
-      <c r="E29" s="74"/>
-      <c r="F29" s="91"/>
-      <c r="G29" s="73"/>
-      <c r="H29" s="73"/>
-      <c r="I29" s="92"/>
-    </row>
-    <row r="30" spans="1:9" ht="23.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="69"/>
-      <c r="B30" s="75" t="s">
+      <c r="C29" s="54"/>
+      <c r="D29" s="54"/>
+      <c r="E29" s="55"/>
+      <c r="F29" s="63"/>
+      <c r="G29" s="54"/>
+      <c r="H29" s="54"/>
+      <c r="I29" s="64"/>
+    </row>
+    <row r="30" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="50"/>
+      <c r="B30" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="C30" s="75"/>
-      <c r="D30" s="75"/>
-      <c r="E30" s="76"/>
-      <c r="F30" s="45"/>
-      <c r="G30" s="46"/>
-      <c r="H30" s="46"/>
-      <c r="I30" s="47"/>
-    </row>
-    <row r="31" spans="1:9" ht="23.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="69"/>
-      <c r="B31" s="75" t="s">
+      <c r="C30" s="56"/>
+      <c r="D30" s="56"/>
+      <c r="E30" s="57"/>
+      <c r="F30" s="86"/>
+      <c r="G30" s="87"/>
+      <c r="H30" s="87"/>
+      <c r="I30" s="88"/>
+    </row>
+    <row r="31" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="50"/>
+      <c r="B31" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="C31" s="75"/>
-      <c r="D31" s="75"/>
-      <c r="E31" s="76"/>
-      <c r="F31" s="45"/>
-      <c r="G31" s="46"/>
-      <c r="H31" s="46"/>
-      <c r="I31" s="47"/>
-    </row>
-    <row r="32" spans="1:9" ht="23.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="83"/>
-      <c r="B32" s="86" t="s">
+      <c r="C31" s="56"/>
+      <c r="D31" s="56"/>
+      <c r="E31" s="57"/>
+      <c r="F31" s="86"/>
+      <c r="G31" s="87"/>
+      <c r="H31" s="87"/>
+      <c r="I31" s="88"/>
+    </row>
+    <row r="32" spans="1:9" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="51"/>
+      <c r="B32" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="C32" s="86"/>
-      <c r="D32" s="86"/>
-      <c r="E32" s="87"/>
-      <c r="F32" s="48"/>
-      <c r="G32" s="49"/>
-      <c r="H32" s="49"/>
-      <c r="I32" s="50"/>
-    </row>
-    <row r="33" spans="1:9" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="G33" s="25"/>
-    </row>
-    <row r="34" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A34" s="77" t="s">
+      <c r="C32" s="58"/>
+      <c r="D32" s="58"/>
+      <c r="E32" s="59"/>
+      <c r="F32" s="89"/>
+      <c r="G32" s="90"/>
+      <c r="H32" s="90"/>
+      <c r="I32" s="91"/>
+    </row>
+    <row r="33" spans="1:9" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G33" s="24"/>
+    </row>
+    <row r="34" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="B34" s="78"/>
-      <c r="C34" s="78"/>
-      <c r="D34" s="78"/>
-      <c r="E34" s="78"/>
-      <c r="F34" s="78"/>
-      <c r="G34" s="78"/>
-      <c r="H34" s="78"/>
-      <c r="I34" s="79"/>
-    </row>
-    <row r="35" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A35" s="26"/>
-      <c r="B35" s="27" t="s">
+      <c r="B34" s="45"/>
+      <c r="C34" s="45"/>
+      <c r="D34" s="45"/>
+      <c r="E34" s="45"/>
+      <c r="F34" s="45"/>
+      <c r="G34" s="45"/>
+      <c r="H34" s="45"/>
+      <c r="I34" s="46"/>
+    </row>
+    <row r="35" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="25"/>
+      <c r="B35" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="C35" s="27" t="s">
+      <c r="C35" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="D35" s="27" t="s">
+      <c r="D35" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="E35" s="27" t="s">
+      <c r="E35" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="F35" s="27" t="s">
+      <c r="F35" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="G35" s="27" t="s">
+      <c r="G35" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="H35" s="27" t="s">
+      <c r="H35" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="I35" s="27" t="s">
+      <c r="I35" s="26" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:9" s="31" customFormat="1" ht="47" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="28" t="s">
+    <row r="36" spans="1:9" s="30" customFormat="1" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="B36" s="29"/>
-      <c r="C36" s="30"/>
-      <c r="D36" s="30"/>
-      <c r="E36" s="30"/>
-      <c r="F36" s="30"/>
-      <c r="G36" s="30"/>
-      <c r="H36" s="30"/>
-      <c r="I36" s="30"/>
-    </row>
-    <row r="37" spans="1:9" s="31" customFormat="1" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="32" t="s">
+      <c r="B36" s="28"/>
+      <c r="C36" s="29"/>
+      <c r="D36" s="29"/>
+      <c r="E36" s="29"/>
+      <c r="F36" s="29"/>
+      <c r="G36" s="29"/>
+      <c r="H36" s="29"/>
+      <c r="I36" s="29"/>
+    </row>
+    <row r="37" spans="1:9" s="30" customFormat="1" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B37" s="26"/>
-      <c r="C37" s="27"/>
-      <c r="D37" s="27"/>
-      <c r="E37" s="27"/>
-      <c r="F37" s="27"/>
-      <c r="G37" s="27"/>
-      <c r="H37" s="27"/>
-      <c r="I37" s="27"/>
+      <c r="B37" s="25"/>
+      <c r="C37" s="26"/>
+      <c r="D37" s="26"/>
+      <c r="E37" s="26"/>
+      <c r="F37" s="26"/>
+      <c r="G37" s="26"/>
+      <c r="H37" s="26"/>
+      <c r="I37" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="46">
+    <mergeCell ref="F30:I30"/>
+    <mergeCell ref="F31:I31"/>
+    <mergeCell ref="F32:I32"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="F16:I16"/>
+    <mergeCell ref="F17:I17"/>
+    <mergeCell ref="F18:I18"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="F10:F14"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="A12:E14"/>
+    <mergeCell ref="A15:E15"/>
+    <mergeCell ref="A16:A24"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="B23:E23"/>
     <mergeCell ref="A34:I34"/>
     <mergeCell ref="B24:E24"/>
     <mergeCell ref="A25:A32"/>
@@ -2239,36 +2289,6 @@
     <mergeCell ref="F27:I27"/>
     <mergeCell ref="F28:I28"/>
     <mergeCell ref="F29:I29"/>
-    <mergeCell ref="A15:E15"/>
-    <mergeCell ref="A16:A24"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A4:I4"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="F10:F14"/>
-    <mergeCell ref="A11:E11"/>
-    <mergeCell ref="A12:E14"/>
-    <mergeCell ref="F15:I15"/>
-    <mergeCell ref="F16:I16"/>
-    <mergeCell ref="F17:I17"/>
-    <mergeCell ref="F18:I18"/>
-    <mergeCell ref="F19:I19"/>
-    <mergeCell ref="F30:I30"/>
-    <mergeCell ref="F31:I31"/>
-    <mergeCell ref="F32:I32"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="F22:I22"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="F24:I24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="50" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -2282,16 +2302,16 @@
   </sheetPr>
   <dimension ref="A1:AC19"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:F4"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="K9" zoomScale="145" zoomScaleNormal="100" zoomScaleSheetLayoutView="145" workbookViewId="0">
+      <selection activeCell="Z8" sqref="Z8:Z9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.1796875" style="2"/>
+    <col min="1" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -2301,49 +2321,49 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="97" t="s">
+    <row r="2" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="120" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="97"/>
-      <c r="C2" s="97"/>
-      <c r="D2" s="97"/>
-      <c r="E2" s="97"/>
-      <c r="F2" s="97"/>
-      <c r="G2" s="97"/>
-      <c r="H2" s="97"/>
-      <c r="I2" s="97"/>
-      <c r="J2" s="97"/>
-      <c r="K2" s="97"/>
-      <c r="L2" s="97"/>
-      <c r="M2" s="97"/>
-      <c r="N2" s="97"/>
-      <c r="O2" s="97"/>
-      <c r="P2" s="97"/>
-      <c r="Q2" s="97"/>
-      <c r="R2" s="97"/>
-      <c r="S2" s="97"/>
-      <c r="T2" s="97"/>
-      <c r="U2" s="97"/>
-      <c r="V2" s="97"/>
-      <c r="W2" s="97"/>
-      <c r="X2" s="97"/>
-      <c r="Y2" s="97"/>
-      <c r="Z2" s="97"/>
-      <c r="AA2" s="97"/>
-      <c r="AB2" s="97"/>
-    </row>
-    <row r="3" spans="1:29" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="98" t="s">
+      <c r="B2" s="120"/>
+      <c r="C2" s="120"/>
+      <c r="D2" s="120"/>
+      <c r="E2" s="120"/>
+      <c r="F2" s="120"/>
+      <c r="G2" s="120"/>
+      <c r="H2" s="120"/>
+      <c r="I2" s="120"/>
+      <c r="J2" s="120"/>
+      <c r="K2" s="120"/>
+      <c r="L2" s="120"/>
+      <c r="M2" s="120"/>
+      <c r="N2" s="120"/>
+      <c r="O2" s="120"/>
+      <c r="P2" s="120"/>
+      <c r="Q2" s="120"/>
+      <c r="R2" s="120"/>
+      <c r="S2" s="120"/>
+      <c r="T2" s="120"/>
+      <c r="U2" s="120"/>
+      <c r="V2" s="120"/>
+      <c r="W2" s="120"/>
+      <c r="X2" s="120"/>
+      <c r="Y2" s="120"/>
+      <c r="Z2" s="120"/>
+      <c r="AA2" s="120"/>
+      <c r="AB2" s="120"/>
+    </row>
+    <row r="3" spans="1:29" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="121" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="98"/>
-      <c r="C3" s="98"/>
-      <c r="D3" s="98"/>
-      <c r="E3" s="98"/>
-      <c r="F3" s="98"/>
-      <c r="G3" s="127"/>
-      <c r="H3" s="127"/>
+      <c r="B3" s="121"/>
+      <c r="C3" s="121"/>
+      <c r="D3" s="121"/>
+      <c r="E3" s="121"/>
+      <c r="F3" s="121"/>
+      <c r="G3" s="94"/>
+      <c r="H3" s="94"/>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
@@ -2365,17 +2385,17 @@
       <c r="AA3" s="4"/>
       <c r="AB3" s="4"/>
     </row>
-    <row r="4" spans="1:29" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="98" t="s">
+    <row r="4" spans="1:29" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="121" t="s">
         <v>78</v>
       </c>
-      <c r="B4" s="98"/>
-      <c r="C4" s="98"/>
-      <c r="D4" s="98"/>
-      <c r="E4" s="98"/>
-      <c r="F4" s="98"/>
-      <c r="G4" s="127"/>
-      <c r="H4" s="127"/>
+      <c r="B4" s="121"/>
+      <c r="C4" s="121"/>
+      <c r="D4" s="121"/>
+      <c r="E4" s="121"/>
+      <c r="F4" s="121"/>
+      <c r="G4" s="94"/>
+      <c r="H4" s="94"/>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
@@ -2397,190 +2417,198 @@
       <c r="AA4" s="4"/>
       <c r="AB4" s="4"/>
     </row>
-    <row r="5" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="98" t="s">
+    <row r="5" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="121" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="98"/>
-      <c r="C5" s="98"/>
-      <c r="D5" s="98"/>
-      <c r="E5" s="98"/>
-      <c r="F5" s="98"/>
-      <c r="G5" s="128"/>
-      <c r="H5" s="128"/>
-    </row>
-    <row r="6" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="7" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="99" t="s">
+      <c r="B5" s="121"/>
+      <c r="C5" s="121"/>
+      <c r="D5" s="121"/>
+      <c r="E5" s="121"/>
+      <c r="F5" s="121"/>
+      <c r="G5" s="95"/>
+      <c r="H5" s="95"/>
+    </row>
+    <row r="6" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="122" t="s">
         <v>40</v>
       </c>
-      <c r="B7" s="102" t="s">
+      <c r="B7" s="125" t="s">
         <v>41</v>
       </c>
-      <c r="C7" s="103"/>
-      <c r="D7" s="104" t="s">
+      <c r="C7" s="126"/>
+      <c r="D7" s="112" t="s">
         <v>42</v>
       </c>
-      <c r="E7" s="105"/>
-      <c r="F7" s="105"/>
-      <c r="G7" s="105"/>
-      <c r="H7" s="105"/>
-      <c r="I7" s="105"/>
-      <c r="J7" s="106"/>
-      <c r="K7" s="104" t="s">
+      <c r="E7" s="113"/>
+      <c r="F7" s="113"/>
+      <c r="G7" s="113"/>
+      <c r="H7" s="113"/>
+      <c r="I7" s="113"/>
+      <c r="J7" s="114"/>
+      <c r="K7" s="112" t="s">
         <v>43</v>
       </c>
-      <c r="L7" s="105"/>
-      <c r="M7" s="106"/>
-      <c r="N7" s="104" t="s">
+      <c r="L7" s="113"/>
+      <c r="M7" s="114"/>
+      <c r="N7" s="112" t="s">
         <v>9</v>
       </c>
-      <c r="O7" s="106"/>
-      <c r="P7" s="104" t="s">
+      <c r="O7" s="114"/>
+      <c r="P7" s="112" t="s">
         <v>44</v>
       </c>
-      <c r="Q7" s="106"/>
-      <c r="R7" s="104" t="s">
+      <c r="Q7" s="114"/>
+      <c r="R7" s="112" t="s">
         <v>45</v>
       </c>
-      <c r="S7" s="105"/>
-      <c r="T7" s="105"/>
-      <c r="U7" s="105"/>
-      <c r="V7" s="105"/>
-      <c r="W7" s="105"/>
-      <c r="X7" s="105"/>
-      <c r="Y7" s="105"/>
-      <c r="Z7" s="107"/>
-      <c r="AA7" s="108" t="s">
+      <c r="S7" s="113"/>
+      <c r="T7" s="113"/>
+      <c r="U7" s="113"/>
+      <c r="V7" s="113"/>
+      <c r="W7" s="113"/>
+      <c r="X7" s="113"/>
+      <c r="Y7" s="113"/>
+      <c r="Z7" s="127"/>
+      <c r="AA7" s="109" t="s">
         <v>46</v>
       </c>
-      <c r="AB7" s="108" t="s">
+      <c r="AB7" s="109" t="s">
         <v>47</v>
       </c>
       <c r="AC7" s="5"/>
     </row>
-    <row r="8" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="100"/>
-      <c r="B8" s="111" t="s">
+    <row r="8" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="123"/>
+      <c r="B8" s="110" t="s">
         <v>48</v>
       </c>
-      <c r="C8" s="93" t="s">
+      <c r="C8" s="115" t="s">
         <v>49</v>
       </c>
-      <c r="D8" s="93" t="s">
+      <c r="D8" s="115" t="s">
         <v>50</v>
       </c>
-      <c r="E8" s="93" t="s">
+      <c r="E8" s="115" t="s">
         <v>51</v>
       </c>
-      <c r="F8" s="93" t="s">
+      <c r="F8" s="115" t="s">
         <v>52</v>
       </c>
-      <c r="G8" s="93" t="s">
+      <c r="G8" s="115" t="s">
         <v>53</v>
       </c>
-      <c r="H8" s="113" t="s">
+      <c r="H8" s="117" t="s">
         <v>54</v>
       </c>
-      <c r="I8" s="104" t="s">
+      <c r="I8" s="112" t="s">
         <v>55</v>
       </c>
-      <c r="J8" s="106"/>
-      <c r="K8" s="109" t="s">
+      <c r="J8" s="114"/>
+      <c r="K8" s="96" t="s">
         <v>56</v>
       </c>
-      <c r="L8" s="93" t="s">
+      <c r="L8" s="115" t="s">
         <v>57</v>
       </c>
-      <c r="M8" s="93" t="s">
+      <c r="M8" s="115" t="s">
         <v>49</v>
       </c>
-      <c r="N8" s="93" t="s">
+      <c r="N8" s="115" t="s">
         <v>58</v>
       </c>
-      <c r="O8" s="93" t="s">
+      <c r="O8" s="115" t="s">
         <v>59</v>
       </c>
-      <c r="P8" s="93" t="s">
+      <c r="P8" s="115" t="s">
         <v>60</v>
       </c>
-      <c r="Q8" s="109" t="s">
+      <c r="Q8" s="96" t="s">
         <v>61</v>
       </c>
-      <c r="R8" s="109" t="s">
+      <c r="R8" s="96" t="s">
         <v>62</v>
       </c>
-      <c r="S8" s="95" t="s">
+      <c r="S8" s="118" t="s">
         <v>63</v>
       </c>
-      <c r="T8" s="93" t="s">
+      <c r="T8" s="115" t="s">
         <v>64</v>
       </c>
-      <c r="U8" s="113" t="s">
+      <c r="U8" s="117" t="s">
         <v>53</v>
       </c>
-      <c r="V8" s="104" t="s">
+      <c r="V8" s="112" t="s">
         <v>65</v>
       </c>
-      <c r="W8" s="105"/>
-      <c r="X8" s="105"/>
-      <c r="Y8" s="106"/>
-      <c r="Z8" s="109" t="s">
+      <c r="W8" s="113"/>
+      <c r="X8" s="113"/>
+      <c r="Y8" s="114"/>
+      <c r="Z8" s="96" t="s">
         <v>66</v>
       </c>
-      <c r="AA8" s="109"/>
-      <c r="AB8" s="109"/>
+      <c r="AA8" s="96"/>
+      <c r="AB8" s="96"/>
       <c r="AC8" s="17"/>
     </row>
-    <row r="9" spans="1:29" ht="320.14999999999998" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="101"/>
-      <c r="B9" s="112"/>
-      <c r="C9" s="94"/>
-      <c r="D9" s="94"/>
-      <c r="E9" s="94"/>
-      <c r="F9" s="94"/>
-      <c r="G9" s="94"/>
-      <c r="H9" s="94"/>
+    <row r="9" spans="1:29" ht="320.10000000000002" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="124"/>
+      <c r="B9" s="111"/>
+      <c r="C9" s="116"/>
+      <c r="D9" s="116"/>
+      <c r="E9" s="116"/>
+      <c r="F9" s="116"/>
+      <c r="G9" s="116"/>
+      <c r="H9" s="116"/>
       <c r="I9" s="6" t="s">
         <v>67</v>
       </c>
       <c r="J9" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="K9" s="110"/>
-      <c r="L9" s="94"/>
-      <c r="M9" s="94"/>
-      <c r="N9" s="94"/>
-      <c r="O9" s="94"/>
-      <c r="P9" s="94"/>
-      <c r="Q9" s="110"/>
-      <c r="R9" s="110"/>
-      <c r="S9" s="96"/>
-      <c r="T9" s="94"/>
-      <c r="U9" s="94"/>
-      <c r="V9" s="18"/>
-      <c r="W9" s="18"/>
-      <c r="X9" s="18"/>
-      <c r="Y9" s="18"/>
-      <c r="Z9" s="110"/>
-      <c r="AA9" s="110"/>
-      <c r="AB9" s="110"/>
+      <c r="K9" s="97"/>
+      <c r="L9" s="116"/>
+      <c r="M9" s="116"/>
+      <c r="N9" s="116"/>
+      <c r="O9" s="116"/>
+      <c r="P9" s="116"/>
+      <c r="Q9" s="97"/>
+      <c r="R9" s="97"/>
+      <c r="S9" s="119"/>
+      <c r="T9" s="116"/>
+      <c r="U9" s="116"/>
+      <c r="V9" s="128" t="s">
+        <v>79</v>
+      </c>
+      <c r="W9" s="128" t="s">
+        <v>80</v>
+      </c>
+      <c r="X9" s="128" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y9" s="128" t="s">
+        <v>82</v>
+      </c>
+      <c r="Z9" s="97"/>
+      <c r="AA9" s="97"/>
+      <c r="AB9" s="97"/>
       <c r="AC9" s="5"/>
     </row>
-    <row r="10" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="33">
+    <row r="10" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="32">
         <v>1</v>
       </c>
-      <c r="B10" s="33">
+      <c r="B10" s="32">
         <v>2</v>
       </c>
-      <c r="C10" s="33">
+      <c r="C10" s="32">
         <v>3</v>
       </c>
-      <c r="D10" s="35">
+      <c r="D10" s="34">
         <v>4</v>
       </c>
-      <c r="E10" s="36">
+      <c r="E10" s="35">
         <v>5</v>
       </c>
       <c r="F10" s="7">
@@ -2643,48 +2671,48 @@
       <c r="Y10" s="13">
         <v>25</v>
       </c>
-      <c r="Z10" s="38">
+      <c r="Z10" s="37">
         <v>26</v>
       </c>
-      <c r="AA10" s="39">
+      <c r="AA10" s="38">
         <v>27</v>
       </c>
-      <c r="AB10" s="40">
+      <c r="AB10" s="39">
         <v>28</v>
       </c>
       <c r="AC10" s="5"/>
     </row>
-    <row r="11" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="34"/>
-      <c r="B11" s="34"/>
-      <c r="C11" s="34"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="34"/>
-      <c r="H11" s="34"/>
-      <c r="I11" s="34"/>
-      <c r="J11" s="34"/>
-      <c r="K11" s="34"/>
-      <c r="L11" s="34"/>
-      <c r="M11" s="34"/>
-      <c r="N11" s="37"/>
-      <c r="O11" s="37"/>
-      <c r="P11" s="34"/>
-      <c r="Q11" s="34"/>
-      <c r="R11" s="34"/>
-      <c r="S11" s="34"/>
-      <c r="T11" s="34"/>
-      <c r="U11" s="34"/>
-      <c r="V11" s="34"/>
-      <c r="W11" s="34"/>
-      <c r="X11" s="34"/>
-      <c r="Y11" s="34"/>
-      <c r="Z11" s="34"/>
-      <c r="AA11" s="34"/>
-      <c r="AB11" s="34"/>
-    </row>
-    <row r="13" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="33"/>
+      <c r="B11" s="33"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="33"/>
+      <c r="I11" s="33"/>
+      <c r="J11" s="33"/>
+      <c r="K11" s="33"/>
+      <c r="L11" s="33"/>
+      <c r="M11" s="33"/>
+      <c r="N11" s="36"/>
+      <c r="O11" s="36"/>
+      <c r="P11" s="33"/>
+      <c r="Q11" s="33"/>
+      <c r="R11" s="33"/>
+      <c r="S11" s="33"/>
+      <c r="T11" s="33"/>
+      <c r="U11" s="33"/>
+      <c r="V11" s="33"/>
+      <c r="W11" s="33"/>
+      <c r="X11" s="33"/>
+      <c r="Y11" s="33"/>
+      <c r="Z11" s="33"/>
+      <c r="AA11" s="33"/>
+      <c r="AB11" s="33"/>
+    </row>
+    <row r="13" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>69</v>
       </c>
@@ -2695,104 +2723,102 @@
       <c r="N13" s="14"/>
       <c r="O13" s="14"/>
     </row>
-    <row r="14" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="116" t="s">
+    <row r="14" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="100" t="s">
         <v>70</v>
       </c>
-      <c r="B14" s="117"/>
-      <c r="C14" s="116" t="s">
+      <c r="B14" s="101"/>
+      <c r="C14" s="100" t="s">
         <v>71</v>
       </c>
-      <c r="D14" s="117"/>
-      <c r="E14" s="118" t="s">
+      <c r="D14" s="101"/>
+      <c r="E14" s="102" t="s">
         <v>72</v>
       </c>
-      <c r="F14" s="119"/>
-      <c r="G14" s="119"/>
-      <c r="H14" s="119"/>
-      <c r="I14" s="119"/>
-      <c r="J14" s="120"/>
+      <c r="F14" s="103"/>
+      <c r="G14" s="103"/>
+      <c r="H14" s="103"/>
+      <c r="I14" s="103"/>
+      <c r="J14" s="104"/>
       <c r="N14" s="14"/>
       <c r="O14" s="14"/>
     </row>
-    <row r="15" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="121"/>
-      <c r="B15" s="117"/>
-      <c r="C15" s="121"/>
-      <c r="D15" s="117"/>
-      <c r="E15" s="122"/>
-      <c r="F15" s="123"/>
-      <c r="G15" s="123"/>
-      <c r="H15" s="123"/>
-      <c r="I15" s="123"/>
-      <c r="J15" s="124"/>
+    <row r="15" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="105"/>
+      <c r="B15" s="101"/>
+      <c r="C15" s="105"/>
+      <c r="D15" s="101"/>
+      <c r="E15" s="106"/>
+      <c r="F15" s="107"/>
+      <c r="G15" s="107"/>
+      <c r="H15" s="107"/>
+      <c r="I15" s="107"/>
+      <c r="J15" s="108"/>
       <c r="O15" s="14"/>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
       <c r="O16" s="14"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="15"/>
       <c r="B17" s="14"/>
       <c r="C17" s="14"/>
       <c r="D17" s="14"/>
     </row>
-    <row r="18" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="114" t="s">
+    <row r="18" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="98" t="s">
         <v>73</v>
       </c>
-      <c r="B18" s="114"/>
-      <c r="C18" s="114"/>
-      <c r="D18" s="41"/>
-      <c r="E18" s="42"/>
-      <c r="F18" s="115"/>
-      <c r="G18" s="115"/>
-      <c r="H18" s="42"/>
-      <c r="I18" s="41"/>
-      <c r="J18" s="42"/>
-      <c r="K18" s="115"/>
-      <c r="L18" s="115"/>
-    </row>
-    <row r="19" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="98"/>
+      <c r="C18" s="98"/>
+      <c r="D18" s="40"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="99"/>
+      <c r="G18" s="99"/>
+      <c r="H18" s="41"/>
+      <c r="I18" s="40"/>
+      <c r="J18" s="41"/>
+      <c r="K18" s="99"/>
+      <c r="L18" s="99"/>
+    </row>
+    <row r="19" spans="1:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="16"/>
       <c r="B19" s="14"/>
       <c r="C19" s="16"/>
-      <c r="D19" s="43" t="s">
+      <c r="D19" s="42" t="s">
         <v>74</v>
       </c>
-      <c r="E19" s="44"/>
-      <c r="F19" s="125" t="s">
+      <c r="E19" s="43"/>
+      <c r="F19" s="92" t="s">
         <v>75</v>
       </c>
-      <c r="G19" s="125"/>
-      <c r="H19" s="43"/>
-      <c r="I19" s="43" t="s">
+      <c r="G19" s="92"/>
+      <c r="H19" s="42"/>
+      <c r="I19" s="42" t="s">
         <v>76</v>
       </c>
-      <c r="J19" s="43"/>
-      <c r="K19" s="126" t="s">
+      <c r="J19" s="42"/>
+      <c r="K19" s="93" t="s">
         <v>77</v>
       </c>
-      <c r="L19" s="126"/>
+      <c r="L19" s="93"/>
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="Q8:Q9"/>
-    <mergeCell ref="R8:R9"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:J14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:J15"/>
-    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="S8:S9"/>
+    <mergeCell ref="T8:T9"/>
+    <mergeCell ref="A2:AB2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:J7"/>
+    <mergeCell ref="K7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="R7:Z7"/>
+    <mergeCell ref="AA7:AA9"/>
     <mergeCell ref="AB7:AB9"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="V8:Y8"/>
@@ -2809,25 +2835,27 @@
     <mergeCell ref="N8:N9"/>
     <mergeCell ref="O8:O9"/>
     <mergeCell ref="P8:P9"/>
+    <mergeCell ref="Q8:Q9"/>
+    <mergeCell ref="R8:R9"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:J14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:J15"/>
+    <mergeCell ref="K18:L18"/>
     <mergeCell ref="C8:C9"/>
     <mergeCell ref="D8:D9"/>
-    <mergeCell ref="S8:S9"/>
-    <mergeCell ref="T8:T9"/>
-    <mergeCell ref="A2:AB2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:J7"/>
-    <mergeCell ref="K7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="R7:Z7"/>
-    <mergeCell ref="AA7:AA9"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G5:H5"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="50" fitToHeight="1000" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="51" fitToHeight="1000" orientation="landscape" r:id="rId1"/>
   <colBreaks count="1" manualBreakCount="1">
     <brk id="28" max="1048575" man="1"/>
   </colBreaks>

--- a/data/Excel/1.8.xlsx
+++ b/data/Excel/1.8.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oaa\Documents\GitHub\RAO_Project\data\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A492D717-F347-48FE-A0C7-FBA2532D5E64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8785EBE8-154E-4B47-AD6C-2DD7615252FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="1.8" sheetId="4" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'1.8'!$A$1:$AB$19</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'1.8'!$A$1:$AC$19</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="84">
   <si>
     <t>Сведения об обособленном подразделении</t>
   </si>
@@ -314,6 +314,9 @@
   </si>
   <si>
     <t>трансурановые радионуклиды</t>
+  </si>
+  <si>
+    <t>Договор</t>
   </si>
 </sst>
 </file>
@@ -429,7 +432,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="56">
+  <borders count="63">
     <border>
       <left/>
       <right/>
@@ -1127,6 +1130,101 @@
         <color indexed="8"/>
       </right>
       <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="medium">
@@ -1141,7 +1239,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="129">
+  <cellXfs count="138">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1264,6 +1362,105 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="55" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1282,9 +1479,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1294,18 +1488,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1327,86 +1509,95 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="34" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="39" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="33" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="37" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="31" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="35" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="38" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="32" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="44" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="48" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="49" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="48" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1420,103 +1611,37 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="38" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="51" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="48" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="49" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="48" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="57" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="32" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="58" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="59" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="33" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="60" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="37" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="61" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="44" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="62" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="34" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="39" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="31" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="35" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="55" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="56" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1826,43 +1951,43 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="71" t="s">
+      <c r="A2" s="54" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
-      <c r="H2" s="71"/>
-      <c r="I2" s="71"/>
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="72" t="s">
+      <c r="A3" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="72"/>
-      <c r="C3" s="72"/>
-      <c r="D3" s="72"/>
-      <c r="E3" s="72"/>
-      <c r="F3" s="72"/>
-      <c r="G3" s="72"/>
-      <c r="H3" s="72"/>
-      <c r="I3" s="72"/>
+      <c r="B3" s="55"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
     </row>
     <row r="4" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="72" t="s">
+      <c r="A4" s="55" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="72"/>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="72"/>
-      <c r="I4" s="72"/>
+      <c r="B4" s="55"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="55"/>
     </row>
     <row r="5" spans="1:9" ht="2.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="20"/>
@@ -1887,306 +2012,306 @@
     </row>
     <row r="9" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="73" t="s">
+      <c r="A10" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="74"/>
-      <c r="C10" s="74"/>
-      <c r="D10" s="74"/>
-      <c r="E10" s="75"/>
-      <c r="F10" s="76" t="s">
+      <c r="B10" s="57"/>
+      <c r="C10" s="57"/>
+      <c r="D10" s="57"/>
+      <c r="E10" s="58"/>
+      <c r="F10" s="59" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="77" t="s">
+      <c r="A11" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="78"/>
-      <c r="C11" s="78"/>
-      <c r="D11" s="78"/>
-      <c r="E11" s="79"/>
-      <c r="F11" s="76"/>
+      <c r="B11" s="61"/>
+      <c r="C11" s="61"/>
+      <c r="D11" s="61"/>
+      <c r="E11" s="62"/>
+      <c r="F11" s="59"/>
     </row>
     <row r="12" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="77" t="s">
+      <c r="A12" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="78"/>
-      <c r="C12" s="78"/>
-      <c r="D12" s="78"/>
-      <c r="E12" s="79"/>
-      <c r="F12" s="76"/>
+      <c r="B12" s="61"/>
+      <c r="C12" s="61"/>
+      <c r="D12" s="61"/>
+      <c r="E12" s="62"/>
+      <c r="F12" s="59"/>
     </row>
     <row r="13" spans="1:9" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="77"/>
-      <c r="B13" s="78"/>
-      <c r="C13" s="78"/>
-      <c r="D13" s="78"/>
-      <c r="E13" s="79"/>
-      <c r="F13" s="76"/>
+      <c r="A13" s="60"/>
+      <c r="B13" s="61"/>
+      <c r="C13" s="61"/>
+      <c r="D13" s="61"/>
+      <c r="E13" s="62"/>
+      <c r="F13" s="59"/>
     </row>
     <row r="14" spans="1:9" ht="30.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="80"/>
-      <c r="B14" s="81"/>
-      <c r="C14" s="81"/>
-      <c r="D14" s="81"/>
-      <c r="E14" s="82"/>
-      <c r="F14" s="76"/>
+      <c r="A14" s="63"/>
+      <c r="B14" s="64"/>
+      <c r="C14" s="64"/>
+      <c r="D14" s="64"/>
+      <c r="E14" s="65"/>
+      <c r="F14" s="59"/>
     </row>
     <row r="15" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="65" t="s">
+      <c r="A15" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="66"/>
-      <c r="C15" s="66"/>
-      <c r="D15" s="66"/>
-      <c r="E15" s="67"/>
-      <c r="F15" s="83"/>
-      <c r="G15" s="84"/>
-      <c r="H15" s="84"/>
-      <c r="I15" s="85"/>
+      <c r="B15" s="67"/>
+      <c r="C15" s="67"/>
+      <c r="D15" s="67"/>
+      <c r="E15" s="68"/>
+      <c r="F15" s="51"/>
+      <c r="G15" s="52"/>
+      <c r="H15" s="52"/>
+      <c r="I15" s="53"/>
     </row>
     <row r="16" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="50" t="s">
+      <c r="A16" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="B16" s="69" t="s">
+      <c r="B16" s="71" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="69"/>
-      <c r="D16" s="69"/>
-      <c r="E16" s="70"/>
-      <c r="F16" s="86"/>
-      <c r="G16" s="87"/>
-      <c r="H16" s="87"/>
-      <c r="I16" s="88"/>
+      <c r="C16" s="71"/>
+      <c r="D16" s="71"/>
+      <c r="E16" s="72"/>
+      <c r="F16" s="45"/>
+      <c r="G16" s="46"/>
+      <c r="H16" s="46"/>
+      <c r="I16" s="47"/>
     </row>
     <row r="17" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="50"/>
-      <c r="B17" s="54" t="s">
+      <c r="A17" s="69"/>
+      <c r="B17" s="73" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="54"/>
-      <c r="D17" s="54"/>
-      <c r="E17" s="55"/>
-      <c r="F17" s="86"/>
-      <c r="G17" s="87"/>
-      <c r="H17" s="87"/>
-      <c r="I17" s="88"/>
+      <c r="C17" s="73"/>
+      <c r="D17" s="73"/>
+      <c r="E17" s="74"/>
+      <c r="F17" s="45"/>
+      <c r="G17" s="46"/>
+      <c r="H17" s="46"/>
+      <c r="I17" s="47"/>
     </row>
     <row r="18" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="50"/>
-      <c r="B18" s="54" t="s">
+      <c r="A18" s="69"/>
+      <c r="B18" s="73" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="54"/>
-      <c r="D18" s="54"/>
-      <c r="E18" s="55"/>
-      <c r="F18" s="86"/>
-      <c r="G18" s="87"/>
-      <c r="H18" s="87"/>
-      <c r="I18" s="88"/>
+      <c r="C18" s="73"/>
+      <c r="D18" s="73"/>
+      <c r="E18" s="74"/>
+      <c r="F18" s="45"/>
+      <c r="G18" s="46"/>
+      <c r="H18" s="46"/>
+      <c r="I18" s="47"/>
     </row>
     <row r="19" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="50"/>
-      <c r="B19" s="54" t="s">
+      <c r="A19" s="69"/>
+      <c r="B19" s="73" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="54"/>
-      <c r="D19" s="54"/>
-      <c r="E19" s="55"/>
-      <c r="F19" s="86"/>
-      <c r="G19" s="87"/>
-      <c r="H19" s="87"/>
-      <c r="I19" s="88"/>
+      <c r="C19" s="73"/>
+      <c r="D19" s="73"/>
+      <c r="E19" s="74"/>
+      <c r="F19" s="45"/>
+      <c r="G19" s="46"/>
+      <c r="H19" s="46"/>
+      <c r="I19" s="47"/>
     </row>
     <row r="20" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="50"/>
-      <c r="B20" s="54" t="s">
+      <c r="A20" s="69"/>
+      <c r="B20" s="73" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="54"/>
-      <c r="D20" s="54"/>
-      <c r="E20" s="55"/>
-      <c r="F20" s="86"/>
-      <c r="G20" s="87"/>
-      <c r="H20" s="87"/>
-      <c r="I20" s="88"/>
+      <c r="C20" s="73"/>
+      <c r="D20" s="73"/>
+      <c r="E20" s="74"/>
+      <c r="F20" s="45"/>
+      <c r="G20" s="46"/>
+      <c r="H20" s="46"/>
+      <c r="I20" s="47"/>
     </row>
     <row r="21" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="50"/>
-      <c r="B21" s="54" t="s">
+      <c r="A21" s="69"/>
+      <c r="B21" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="54"/>
-      <c r="D21" s="54"/>
-      <c r="E21" s="55"/>
-      <c r="F21" s="86"/>
-      <c r="G21" s="87"/>
-      <c r="H21" s="87"/>
-      <c r="I21" s="88"/>
+      <c r="C21" s="73"/>
+      <c r="D21" s="73"/>
+      <c r="E21" s="74"/>
+      <c r="F21" s="45"/>
+      <c r="G21" s="46"/>
+      <c r="H21" s="46"/>
+      <c r="I21" s="47"/>
     </row>
     <row r="22" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="50"/>
-      <c r="B22" s="56" t="s">
+      <c r="A22" s="69"/>
+      <c r="B22" s="75" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="56"/>
-      <c r="D22" s="56"/>
-      <c r="E22" s="57"/>
-      <c r="F22" s="86"/>
-      <c r="G22" s="87"/>
-      <c r="H22" s="87"/>
-      <c r="I22" s="88"/>
+      <c r="C22" s="75"/>
+      <c r="D22" s="75"/>
+      <c r="E22" s="76"/>
+      <c r="F22" s="45"/>
+      <c r="G22" s="46"/>
+      <c r="H22" s="46"/>
+      <c r="I22" s="47"/>
     </row>
     <row r="23" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="50"/>
-      <c r="B23" s="56" t="s">
+      <c r="A23" s="69"/>
+      <c r="B23" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="C23" s="56"/>
-      <c r="D23" s="56"/>
-      <c r="E23" s="57"/>
-      <c r="F23" s="86"/>
-      <c r="G23" s="87"/>
-      <c r="H23" s="87"/>
-      <c r="I23" s="88"/>
+      <c r="C23" s="75"/>
+      <c r="D23" s="75"/>
+      <c r="E23" s="76"/>
+      <c r="F23" s="45"/>
+      <c r="G23" s="46"/>
+      <c r="H23" s="46"/>
+      <c r="I23" s="47"/>
     </row>
     <row r="24" spans="1:9" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="68"/>
-      <c r="B24" s="47" t="s">
+      <c r="A24" s="70"/>
+      <c r="B24" s="80" t="s">
         <v>11</v>
       </c>
-      <c r="C24" s="47"/>
-      <c r="D24" s="47"/>
-      <c r="E24" s="48"/>
-      <c r="F24" s="89"/>
-      <c r="G24" s="90"/>
-      <c r="H24" s="90"/>
-      <c r="I24" s="91"/>
+      <c r="C24" s="80"/>
+      <c r="D24" s="80"/>
+      <c r="E24" s="81"/>
+      <c r="F24" s="48"/>
+      <c r="G24" s="49"/>
+      <c r="H24" s="49"/>
+      <c r="I24" s="50"/>
     </row>
     <row r="25" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="49" t="s">
+      <c r="A25" s="82" t="s">
         <v>0</v>
       </c>
-      <c r="B25" s="52" t="s">
+      <c r="B25" s="84" t="s">
         <v>18</v>
       </c>
-      <c r="C25" s="52"/>
-      <c r="D25" s="52"/>
-      <c r="E25" s="53"/>
-      <c r="F25" s="60"/>
-      <c r="G25" s="61"/>
-      <c r="H25" s="61"/>
-      <c r="I25" s="62"/>
+      <c r="C25" s="84"/>
+      <c r="D25" s="84"/>
+      <c r="E25" s="85"/>
+      <c r="F25" s="88"/>
+      <c r="G25" s="89"/>
+      <c r="H25" s="89"/>
+      <c r="I25" s="90"/>
     </row>
     <row r="26" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="50"/>
-      <c r="B26" s="54" t="s">
+      <c r="A26" s="69"/>
+      <c r="B26" s="73" t="s">
         <v>17</v>
       </c>
-      <c r="C26" s="54"/>
-      <c r="D26" s="54"/>
-      <c r="E26" s="55"/>
-      <c r="F26" s="63"/>
-      <c r="G26" s="54"/>
-      <c r="H26" s="54"/>
-      <c r="I26" s="64"/>
+      <c r="C26" s="73"/>
+      <c r="D26" s="73"/>
+      <c r="E26" s="74"/>
+      <c r="F26" s="91"/>
+      <c r="G26" s="73"/>
+      <c r="H26" s="73"/>
+      <c r="I26" s="92"/>
     </row>
     <row r="27" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="50"/>
-      <c r="B27" s="54" t="s">
+      <c r="A27" s="69"/>
+      <c r="B27" s="73" t="s">
         <v>16</v>
       </c>
-      <c r="C27" s="54"/>
-      <c r="D27" s="54"/>
-      <c r="E27" s="55"/>
-      <c r="F27" s="63"/>
-      <c r="G27" s="54"/>
-      <c r="H27" s="54"/>
-      <c r="I27" s="64"/>
+      <c r="C27" s="73"/>
+      <c r="D27" s="73"/>
+      <c r="E27" s="74"/>
+      <c r="F27" s="91"/>
+      <c r="G27" s="73"/>
+      <c r="H27" s="73"/>
+      <c r="I27" s="92"/>
     </row>
     <row r="28" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="50"/>
-      <c r="B28" s="54" t="s">
+      <c r="A28" s="69"/>
+      <c r="B28" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="C28" s="54"/>
-      <c r="D28" s="54"/>
-      <c r="E28" s="55"/>
-      <c r="F28" s="63"/>
-      <c r="G28" s="54"/>
-      <c r="H28" s="54"/>
-      <c r="I28" s="64"/>
+      <c r="C28" s="73"/>
+      <c r="D28" s="73"/>
+      <c r="E28" s="74"/>
+      <c r="F28" s="91"/>
+      <c r="G28" s="73"/>
+      <c r="H28" s="73"/>
+      <c r="I28" s="92"/>
     </row>
     <row r="29" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="50"/>
-      <c r="B29" s="54" t="s">
+      <c r="A29" s="69"/>
+      <c r="B29" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="C29" s="54"/>
-      <c r="D29" s="54"/>
-      <c r="E29" s="55"/>
-      <c r="F29" s="63"/>
-      <c r="G29" s="54"/>
-      <c r="H29" s="54"/>
-      <c r="I29" s="64"/>
+      <c r="C29" s="73"/>
+      <c r="D29" s="73"/>
+      <c r="E29" s="74"/>
+      <c r="F29" s="91"/>
+      <c r="G29" s="73"/>
+      <c r="H29" s="73"/>
+      <c r="I29" s="92"/>
     </row>
     <row r="30" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="50"/>
-      <c r="B30" s="56" t="s">
+      <c r="A30" s="69"/>
+      <c r="B30" s="75" t="s">
         <v>13</v>
       </c>
-      <c r="C30" s="56"/>
-      <c r="D30" s="56"/>
-      <c r="E30" s="57"/>
-      <c r="F30" s="86"/>
-      <c r="G30" s="87"/>
-      <c r="H30" s="87"/>
-      <c r="I30" s="88"/>
+      <c r="C30" s="75"/>
+      <c r="D30" s="75"/>
+      <c r="E30" s="76"/>
+      <c r="F30" s="45"/>
+      <c r="G30" s="46"/>
+      <c r="H30" s="46"/>
+      <c r="I30" s="47"/>
     </row>
     <row r="31" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="50"/>
-      <c r="B31" s="56" t="s">
+      <c r="A31" s="69"/>
+      <c r="B31" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="C31" s="56"/>
-      <c r="D31" s="56"/>
-      <c r="E31" s="57"/>
-      <c r="F31" s="86"/>
-      <c r="G31" s="87"/>
-      <c r="H31" s="87"/>
-      <c r="I31" s="88"/>
+      <c r="C31" s="75"/>
+      <c r="D31" s="75"/>
+      <c r="E31" s="76"/>
+      <c r="F31" s="45"/>
+      <c r="G31" s="46"/>
+      <c r="H31" s="46"/>
+      <c r="I31" s="47"/>
     </row>
     <row r="32" spans="1:9" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="51"/>
-      <c r="B32" s="58" t="s">
+      <c r="A32" s="83"/>
+      <c r="B32" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="C32" s="58"/>
-      <c r="D32" s="58"/>
-      <c r="E32" s="59"/>
-      <c r="F32" s="89"/>
-      <c r="G32" s="90"/>
-      <c r="H32" s="90"/>
-      <c r="I32" s="91"/>
+      <c r="C32" s="86"/>
+      <c r="D32" s="86"/>
+      <c r="E32" s="87"/>
+      <c r="F32" s="48"/>
+      <c r="G32" s="49"/>
+      <c r="H32" s="49"/>
+      <c r="I32" s="50"/>
     </row>
     <row r="33" spans="1:9" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G33" s="24"/>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="44" t="s">
+      <c r="A34" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="B34" s="45"/>
-      <c r="C34" s="45"/>
-      <c r="D34" s="45"/>
-      <c r="E34" s="45"/>
-      <c r="F34" s="45"/>
-      <c r="G34" s="45"/>
-      <c r="H34" s="45"/>
-      <c r="I34" s="46"/>
+      <c r="B34" s="78"/>
+      <c r="C34" s="78"/>
+      <c r="D34" s="78"/>
+      <c r="E34" s="78"/>
+      <c r="F34" s="78"/>
+      <c r="G34" s="78"/>
+      <c r="H34" s="78"/>
+      <c r="I34" s="79"/>
     </row>
     <row r="35" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="25"/>
@@ -2243,36 +2368,6 @@
     </row>
   </sheetData>
   <mergeCells count="46">
-    <mergeCell ref="F30:I30"/>
-    <mergeCell ref="F31:I31"/>
-    <mergeCell ref="F32:I32"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="F22:I22"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="F15:I15"/>
-    <mergeCell ref="F16:I16"/>
-    <mergeCell ref="F17:I17"/>
-    <mergeCell ref="F18:I18"/>
-    <mergeCell ref="F19:I19"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A4:I4"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="F10:F14"/>
-    <mergeCell ref="A11:E11"/>
-    <mergeCell ref="A12:E14"/>
-    <mergeCell ref="A15:E15"/>
-    <mergeCell ref="A16:A24"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="B23:E23"/>
     <mergeCell ref="A34:I34"/>
     <mergeCell ref="B24:E24"/>
     <mergeCell ref="A25:A32"/>
@@ -2289,6 +2384,36 @@
     <mergeCell ref="F27:I27"/>
     <mergeCell ref="F28:I28"/>
     <mergeCell ref="F29:I29"/>
+    <mergeCell ref="A15:E15"/>
+    <mergeCell ref="A16:A24"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="F10:F14"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="A12:E14"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="F16:I16"/>
+    <mergeCell ref="F17:I17"/>
+    <mergeCell ref="F18:I18"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="F30:I30"/>
+    <mergeCell ref="F31:I31"/>
+    <mergeCell ref="F32:I32"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="F24:I24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="50" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -2300,10 +2425,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AC19"/>
+  <dimension ref="A1:AD19"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="K9" zoomScale="145" zoomScaleNormal="100" zoomScaleSheetLayoutView="145" workbookViewId="0">
-      <selection activeCell="Z8" sqref="Z8:Z9"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="145" zoomScaleNormal="100" zoomScaleSheetLayoutView="145" workbookViewId="0">
+      <selection activeCell="V9" sqref="V9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2311,59 +2436,61 @@
     <col min="1" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
-      <c r="AB1" s="3" t="s">
+      <c r="AB1" s="3"/>
+      <c r="AC1" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="120" t="s">
+    <row r="2" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="97" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="120"/>
-      <c r="C2" s="120"/>
-      <c r="D2" s="120"/>
-      <c r="E2" s="120"/>
-      <c r="F2" s="120"/>
-      <c r="G2" s="120"/>
-      <c r="H2" s="120"/>
-      <c r="I2" s="120"/>
-      <c r="J2" s="120"/>
-      <c r="K2" s="120"/>
-      <c r="L2" s="120"/>
-      <c r="M2" s="120"/>
-      <c r="N2" s="120"/>
-      <c r="O2" s="120"/>
-      <c r="P2" s="120"/>
-      <c r="Q2" s="120"/>
-      <c r="R2" s="120"/>
-      <c r="S2" s="120"/>
-      <c r="T2" s="120"/>
-      <c r="U2" s="120"/>
-      <c r="V2" s="120"/>
-      <c r="W2" s="120"/>
-      <c r="X2" s="120"/>
-      <c r="Y2" s="120"/>
-      <c r="Z2" s="120"/>
-      <c r="AA2" s="120"/>
-      <c r="AB2" s="120"/>
-    </row>
-    <row r="3" spans="1:29" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="121" t="s">
+      <c r="B2" s="97"/>
+      <c r="C2" s="97"/>
+      <c r="D2" s="97"/>
+      <c r="E2" s="97"/>
+      <c r="F2" s="97"/>
+      <c r="G2" s="97"/>
+      <c r="H2" s="97"/>
+      <c r="I2" s="97"/>
+      <c r="J2" s="97"/>
+      <c r="K2" s="97"/>
+      <c r="L2" s="97"/>
+      <c r="M2" s="97"/>
+      <c r="N2" s="97"/>
+      <c r="O2" s="97"/>
+      <c r="P2" s="97"/>
+      <c r="Q2" s="97"/>
+      <c r="R2" s="97"/>
+      <c r="S2" s="97"/>
+      <c r="T2" s="97"/>
+      <c r="U2" s="97"/>
+      <c r="V2" s="97"/>
+      <c r="W2" s="97"/>
+      <c r="X2" s="97"/>
+      <c r="Y2" s="97"/>
+      <c r="Z2" s="97"/>
+      <c r="AA2" s="97"/>
+      <c r="AB2" s="97"/>
+      <c r="AC2" s="97"/>
+    </row>
+    <row r="3" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="98" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="121"/>
-      <c r="C3" s="121"/>
-      <c r="D3" s="121"/>
-      <c r="E3" s="121"/>
-      <c r="F3" s="121"/>
-      <c r="G3" s="94"/>
-      <c r="H3" s="94"/>
+      <c r="B3" s="98"/>
+      <c r="C3" s="98"/>
+      <c r="D3" s="98"/>
+      <c r="E3" s="98"/>
+      <c r="F3" s="98"/>
+      <c r="G3" s="125"/>
+      <c r="H3" s="125"/>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
@@ -2384,18 +2511,19 @@
       <c r="Z3" s="4"/>
       <c r="AA3" s="4"/>
       <c r="AB3" s="4"/>
-    </row>
-    <row r="4" spans="1:29" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="121" t="s">
+      <c r="AC3" s="4"/>
+    </row>
+    <row r="4" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="98" t="s">
         <v>78</v>
       </c>
-      <c r="B4" s="121"/>
-      <c r="C4" s="121"/>
-      <c r="D4" s="121"/>
-      <c r="E4" s="121"/>
-      <c r="F4" s="121"/>
-      <c r="G4" s="94"/>
-      <c r="H4" s="94"/>
+      <c r="B4" s="98"/>
+      <c r="C4" s="98"/>
+      <c r="D4" s="98"/>
+      <c r="E4" s="98"/>
+      <c r="F4" s="98"/>
+      <c r="G4" s="125"/>
+      <c r="H4" s="125"/>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
@@ -2416,186 +2544,194 @@
       <c r="Z4" s="4"/>
       <c r="AA4" s="4"/>
       <c r="AB4" s="4"/>
-    </row>
-    <row r="5" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="121" t="s">
+      <c r="AC4" s="4"/>
+    </row>
+    <row r="5" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="98" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="121"/>
-      <c r="C5" s="121"/>
-      <c r="D5" s="121"/>
-      <c r="E5" s="121"/>
-      <c r="F5" s="121"/>
-      <c r="G5" s="95"/>
-      <c r="H5" s="95"/>
-    </row>
-    <row r="6" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="122" t="s">
+      <c r="B5" s="98"/>
+      <c r="C5" s="98"/>
+      <c r="D5" s="98"/>
+      <c r="E5" s="98"/>
+      <c r="F5" s="98"/>
+      <c r="G5" s="126"/>
+      <c r="H5" s="126"/>
+    </row>
+    <row r="6" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:30" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="99" t="s">
         <v>40</v>
       </c>
-      <c r="B7" s="125" t="s">
+      <c r="B7" s="102" t="s">
         <v>41</v>
       </c>
-      <c r="C7" s="126"/>
-      <c r="D7" s="112" t="s">
+      <c r="C7" s="103"/>
+      <c r="D7" s="104" t="s">
         <v>42</v>
       </c>
-      <c r="E7" s="113"/>
-      <c r="F7" s="113"/>
-      <c r="G7" s="113"/>
-      <c r="H7" s="113"/>
-      <c r="I7" s="113"/>
-      <c r="J7" s="114"/>
-      <c r="K7" s="112" t="s">
+      <c r="E7" s="105"/>
+      <c r="F7" s="105"/>
+      <c r="G7" s="105"/>
+      <c r="H7" s="105"/>
+      <c r="I7" s="105"/>
+      <c r="J7" s="106"/>
+      <c r="K7" s="104" t="s">
         <v>43</v>
       </c>
-      <c r="L7" s="113"/>
-      <c r="M7" s="114"/>
-      <c r="N7" s="112" t="s">
+      <c r="L7" s="105"/>
+      <c r="M7" s="106"/>
+      <c r="N7" s="104" t="s">
         <v>9</v>
       </c>
-      <c r="O7" s="114"/>
-      <c r="P7" s="112" t="s">
+      <c r="O7" s="106"/>
+      <c r="P7" s="104" t="s">
         <v>44</v>
       </c>
-      <c r="Q7" s="114"/>
-      <c r="R7" s="112" t="s">
+      <c r="Q7" s="106"/>
+      <c r="R7" s="104" t="s">
         <v>45</v>
       </c>
-      <c r="S7" s="113"/>
-      <c r="T7" s="113"/>
-      <c r="U7" s="113"/>
-      <c r="V7" s="113"/>
-      <c r="W7" s="113"/>
-      <c r="X7" s="113"/>
-      <c r="Y7" s="113"/>
-      <c r="Z7" s="127"/>
-      <c r="AA7" s="109" t="s">
+      <c r="S7" s="105"/>
+      <c r="T7" s="105"/>
+      <c r="U7" s="105"/>
+      <c r="V7" s="105"/>
+      <c r="W7" s="105"/>
+      <c r="X7" s="105"/>
+      <c r="Y7" s="105"/>
+      <c r="Z7" s="105"/>
+      <c r="AA7" s="132" t="s">
         <v>46</v>
       </c>
-      <c r="AB7" s="109" t="s">
+      <c r="AB7" s="129" t="s">
         <v>47</v>
       </c>
-      <c r="AC7" s="5"/>
-    </row>
-    <row r="8" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="123"/>
-      <c r="B8" s="110" t="s">
+      <c r="AC7" s="135" t="s">
+        <v>83</v>
+      </c>
+      <c r="AD7" s="5"/>
+    </row>
+    <row r="8" spans="1:30" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="100"/>
+      <c r="B8" s="109" t="s">
         <v>48</v>
       </c>
-      <c r="C8" s="115" t="s">
+      <c r="C8" s="95" t="s">
         <v>49</v>
       </c>
-      <c r="D8" s="115" t="s">
+      <c r="D8" s="95" t="s">
         <v>50</v>
       </c>
-      <c r="E8" s="115" t="s">
+      <c r="E8" s="95" t="s">
         <v>51</v>
       </c>
-      <c r="F8" s="115" t="s">
+      <c r="F8" s="95" t="s">
         <v>52</v>
       </c>
-      <c r="G8" s="115" t="s">
+      <c r="G8" s="95" t="s">
         <v>53</v>
       </c>
-      <c r="H8" s="117" t="s">
+      <c r="H8" s="111" t="s">
         <v>54</v>
       </c>
-      <c r="I8" s="112" t="s">
+      <c r="I8" s="104" t="s">
         <v>55</v>
       </c>
-      <c r="J8" s="114"/>
-      <c r="K8" s="96" t="s">
+      <c r="J8" s="106"/>
+      <c r="K8" s="107" t="s">
         <v>56</v>
       </c>
-      <c r="L8" s="115" t="s">
+      <c r="L8" s="95" t="s">
         <v>57</v>
       </c>
-      <c r="M8" s="115" t="s">
+      <c r="M8" s="95" t="s">
         <v>49</v>
       </c>
-      <c r="N8" s="115" t="s">
+      <c r="N8" s="95" t="s">
         <v>58</v>
       </c>
-      <c r="O8" s="115" t="s">
+      <c r="O8" s="95" t="s">
         <v>59</v>
       </c>
-      <c r="P8" s="115" t="s">
+      <c r="P8" s="95" t="s">
         <v>60</v>
       </c>
-      <c r="Q8" s="96" t="s">
+      <c r="Q8" s="107" t="s">
         <v>61</v>
       </c>
-      <c r="R8" s="96" t="s">
+      <c r="R8" s="107" t="s">
         <v>62</v>
       </c>
-      <c r="S8" s="118" t="s">
+      <c r="S8" s="93" t="s">
         <v>63</v>
       </c>
-      <c r="T8" s="115" t="s">
+      <c r="T8" s="95" t="s">
         <v>64</v>
       </c>
-      <c r="U8" s="117" t="s">
+      <c r="U8" s="111" t="s">
         <v>53</v>
       </c>
-      <c r="V8" s="112" t="s">
+      <c r="V8" s="104" t="s">
         <v>65</v>
       </c>
-      <c r="W8" s="113"/>
-      <c r="X8" s="113"/>
-      <c r="Y8" s="114"/>
-      <c r="Z8" s="96" t="s">
+      <c r="W8" s="105"/>
+      <c r="X8" s="105"/>
+      <c r="Y8" s="106"/>
+      <c r="Z8" s="127" t="s">
         <v>66</v>
       </c>
-      <c r="AA8" s="96"/>
-      <c r="AB8" s="96"/>
-      <c r="AC8" s="17"/>
-    </row>
-    <row r="9" spans="1:29" ht="320.10000000000002" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="124"/>
-      <c r="B9" s="111"/>
-      <c r="C9" s="116"/>
-      <c r="D9" s="116"/>
-      <c r="E9" s="116"/>
-      <c r="F9" s="116"/>
-      <c r="G9" s="116"/>
-      <c r="H9" s="116"/>
+      <c r="AA8" s="133"/>
+      <c r="AB8" s="130"/>
+      <c r="AC8" s="136"/>
+      <c r="AD8" s="17"/>
+    </row>
+    <row r="9" spans="1:30" ht="320.10000000000002" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="101"/>
+      <c r="B9" s="110"/>
+      <c r="C9" s="96"/>
+      <c r="D9" s="96"/>
+      <c r="E9" s="96"/>
+      <c r="F9" s="96"/>
+      <c r="G9" s="96"/>
+      <c r="H9" s="96"/>
       <c r="I9" s="6" t="s">
         <v>67</v>
       </c>
       <c r="J9" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="K9" s="97"/>
-      <c r="L9" s="116"/>
-      <c r="M9" s="116"/>
-      <c r="N9" s="116"/>
-      <c r="O9" s="116"/>
-      <c r="P9" s="116"/>
-      <c r="Q9" s="97"/>
-      <c r="R9" s="97"/>
-      <c r="S9" s="119"/>
-      <c r="T9" s="116"/>
-      <c r="U9" s="116"/>
-      <c r="V9" s="128" t="s">
+      <c r="K9" s="108"/>
+      <c r="L9" s="96"/>
+      <c r="M9" s="96"/>
+      <c r="N9" s="96"/>
+      <c r="O9" s="96"/>
+      <c r="P9" s="96"/>
+      <c r="Q9" s="108"/>
+      <c r="R9" s="108"/>
+      <c r="S9" s="94"/>
+      <c r="T9" s="96"/>
+      <c r="U9" s="96"/>
+      <c r="V9" s="44" t="s">
         <v>79</v>
       </c>
-      <c r="W9" s="128" t="s">
+      <c r="W9" s="44" t="s">
         <v>80</v>
       </c>
-      <c r="X9" s="128" t="s">
+      <c r="X9" s="44" t="s">
         <v>81</v>
       </c>
-      <c r="Y9" s="128" t="s">
+      <c r="Y9" s="44" t="s">
         <v>82</v>
       </c>
-      <c r="Z9" s="97"/>
-      <c r="AA9" s="97"/>
-      <c r="AB9" s="97"/>
-      <c r="AC9" s="5"/>
-    </row>
-    <row r="10" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Z9" s="128"/>
+      <c r="AA9" s="134"/>
+      <c r="AB9" s="131"/>
+      <c r="AC9" s="137" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD9" s="5"/>
+    </row>
+    <row r="10" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="32">
         <v>1</v>
       </c>
@@ -2680,9 +2816,12 @@
       <c r="AB10" s="39">
         <v>28</v>
       </c>
-      <c r="AC10" s="5"/>
-    </row>
-    <row r="11" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AC10" s="39">
+        <v>29</v>
+      </c>
+      <c r="AD10" s="5"/>
+    </row>
+    <row r="11" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="33"/>
       <c r="B11" s="33"/>
       <c r="C11" s="33"/>
@@ -2711,8 +2850,9 @@
       <c r="Z11" s="33"/>
       <c r="AA11" s="33"/>
       <c r="AB11" s="33"/>
-    </row>
-    <row r="13" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AC11" s="33"/>
+    </row>
+    <row r="13" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>69</v>
       </c>
@@ -2723,40 +2863,40 @@
       <c r="N13" s="14"/>
       <c r="O13" s="14"/>
     </row>
-    <row r="14" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="100" t="s">
+    <row r="14" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="114" t="s">
         <v>70</v>
       </c>
-      <c r="B14" s="101"/>
-      <c r="C14" s="100" t="s">
+      <c r="B14" s="115"/>
+      <c r="C14" s="114" t="s">
         <v>71</v>
       </c>
-      <c r="D14" s="101"/>
-      <c r="E14" s="102" t="s">
+      <c r="D14" s="115"/>
+      <c r="E14" s="116" t="s">
         <v>72</v>
       </c>
-      <c r="F14" s="103"/>
-      <c r="G14" s="103"/>
-      <c r="H14" s="103"/>
-      <c r="I14" s="103"/>
-      <c r="J14" s="104"/>
+      <c r="F14" s="117"/>
+      <c r="G14" s="117"/>
+      <c r="H14" s="117"/>
+      <c r="I14" s="117"/>
+      <c r="J14" s="118"/>
       <c r="N14" s="14"/>
       <c r="O14" s="14"/>
     </row>
-    <row r="15" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="105"/>
-      <c r="B15" s="101"/>
-      <c r="C15" s="105"/>
-      <c r="D15" s="101"/>
-      <c r="E15" s="106"/>
-      <c r="F15" s="107"/>
-      <c r="G15" s="107"/>
-      <c r="H15" s="107"/>
-      <c r="I15" s="107"/>
-      <c r="J15" s="108"/>
+    <row r="15" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="119"/>
+      <c r="B15" s="115"/>
+      <c r="C15" s="119"/>
+      <c r="D15" s="115"/>
+      <c r="E15" s="120"/>
+      <c r="F15" s="121"/>
+      <c r="G15" s="121"/>
+      <c r="H15" s="121"/>
+      <c r="I15" s="121"/>
+      <c r="J15" s="122"/>
       <c r="O15" s="14"/>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
       <c r="O16" s="14"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
@@ -2766,20 +2906,20 @@
       <c r="D17" s="14"/>
     </row>
     <row r="18" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="98" t="s">
+      <c r="A18" s="112" t="s">
         <v>73</v>
       </c>
-      <c r="B18" s="98"/>
-      <c r="C18" s="98"/>
+      <c r="B18" s="112"/>
+      <c r="C18" s="112"/>
       <c r="D18" s="40"/>
       <c r="E18" s="41"/>
-      <c r="F18" s="99"/>
-      <c r="G18" s="99"/>
+      <c r="F18" s="113"/>
+      <c r="G18" s="113"/>
       <c r="H18" s="41"/>
       <c r="I18" s="40"/>
       <c r="J18" s="41"/>
-      <c r="K18" s="99"/>
-      <c r="L18" s="99"/>
+      <c r="K18" s="113"/>
+      <c r="L18" s="113"/>
     </row>
     <row r="19" spans="1:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="16"/>
@@ -2789,38 +2929,40 @@
         <v>74</v>
       </c>
       <c r="E19" s="43"/>
-      <c r="F19" s="92" t="s">
+      <c r="F19" s="123" t="s">
         <v>75</v>
       </c>
-      <c r="G19" s="92"/>
+      <c r="G19" s="123"/>
       <c r="H19" s="42"/>
       <c r="I19" s="42" t="s">
         <v>76</v>
       </c>
       <c r="J19" s="42"/>
-      <c r="K19" s="93" t="s">
+      <c r="K19" s="124" t="s">
         <v>77</v>
       </c>
-      <c r="L19" s="93"/>
+      <c r="L19" s="124"/>
     </row>
   </sheetData>
-  <mergeCells count="48">
-    <mergeCell ref="S8:S9"/>
-    <mergeCell ref="T8:T9"/>
-    <mergeCell ref="A2:AB2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:J7"/>
-    <mergeCell ref="K7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="R7:Z7"/>
-    <mergeCell ref="AA7:AA9"/>
+  <mergeCells count="49">
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G5:H5"/>
     <mergeCell ref="AB7:AB9"/>
-    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="AC7:AC8"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:J14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:J15"/>
     <mergeCell ref="V8:Y8"/>
     <mergeCell ref="Z8:Z9"/>
     <mergeCell ref="E8:E9"/>
@@ -2837,27 +2979,26 @@
     <mergeCell ref="P8:P9"/>
     <mergeCell ref="Q8:Q9"/>
     <mergeCell ref="R8:R9"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:J14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:J15"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="S8:S9"/>
+    <mergeCell ref="T8:T9"/>
+    <mergeCell ref="A2:AC2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:J7"/>
+    <mergeCell ref="K7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="R7:Z7"/>
+    <mergeCell ref="AA7:AA9"/>
+    <mergeCell ref="B8:B9"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="51" fitToHeight="1000" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="49" fitToHeight="1000" orientation="landscape" r:id="rId1"/>
   <colBreaks count="1" manualBreakCount="1">
-    <brk id="28" max="1048575" man="1"/>
+    <brk id="29" max="1048575" man="1"/>
   </colBreaks>
 </worksheet>
 </file>